--- a/data/134/DEUSTATIS/old/Turnover in retail trade - 1994.xlsx
+++ b/data/134/DEUSTATIS/old/Turnover in retail trade - 1994.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:08:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:03:52</t>
   </si>
 </sst>
 </file>
@@ -8316,28 +8316,28 @@
         <v>83.3</v>
       </c>
       <c r="K18" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="L18" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="M18" t="n" s="10">
         <v>84.5</v>
       </c>
       <c r="N18" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="O18" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="P18" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="Q18" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="R18" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="S18" t="n" s="10">
         <v>86.1</v>
@@ -8382,7 +8382,7 @@
         <v>84.9</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="AH18" t="n" s="10">
         <v>86.5</v>
@@ -8400,19 +8400,19 @@
         <v>84.7</v>
       </c>
       <c r="AM18" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="AN18" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="AO18" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="AP18" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="AQ18" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="AR18" t="n" s="10">
         <v>84.7</v>
@@ -8430,7 +8430,7 @@
         <v>85.1</v>
       </c>
       <c r="AW18" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="AX18" t="n" s="10">
         <v>84.4</v>
@@ -8454,7 +8454,7 @@
         <v>84.3</v>
       </c>
       <c r="BE18" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="BF18" t="n" s="10">
         <v>85.1</v>
@@ -8484,7 +8484,7 @@
         <v>83.8</v>
       </c>
       <c r="BO18" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="BP18" t="n" s="10">
         <v>85.6</v>
@@ -8502,10 +8502,10 @@
         <v>86.3</v>
       </c>
       <c r="BU18" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="BV18" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BW18" t="n" s="10">
         <v>85.2</v>
@@ -8520,7 +8520,7 @@
         <v>88.0</v>
       </c>
       <c r="CA18" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="CB18" t="n" s="10">
         <v>86.6</v>
@@ -8562,7 +8562,7 @@
         <v>89.7</v>
       </c>
       <c r="CO18" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="CP18" t="n" s="10">
         <v>88.3</v>
@@ -8586,7 +8586,7 @@
         <v>86.9</v>
       </c>
       <c r="CW18" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="CX18" t="n" s="10">
         <v>86.1</v>
@@ -8595,7 +8595,7 @@
         <v>86.7</v>
       </c>
       <c r="CZ18" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="DA18" t="n" s="10">
         <v>87.0</v>
@@ -8622,16 +8622,16 @@
         <v>86.1</v>
       </c>
       <c r="DI18" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="DJ18" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DK18" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="DL18" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DM18" t="n" s="10">
         <v>85.3</v>
@@ -8643,7 +8643,7 @@
         <v>86.0</v>
       </c>
       <c r="DP18" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="DQ18" t="n" s="10">
         <v>85.5</v>
@@ -8658,10 +8658,10 @@
         <v>86.7</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="DV18" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="DW18" t="n" s="10">
         <v>85.5</v>
@@ -8696,7 +8696,7 @@
         <v>83.5</v>
       </c>
       <c r="D19" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="E19" t="n" s="10">
         <v>83.6</v>
@@ -8798,7 +8798,7 @@
         <v>85.3</v>
       </c>
       <c r="AL19" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="AM19" t="n" s="10">
         <v>85.0</v>
@@ -8807,7 +8807,7 @@
         <v>84.9</v>
       </c>
       <c r="AO19" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="AP19" t="n" s="10">
         <v>84.6</v>
@@ -8867,7 +8867,7 @@
         <v>85.0</v>
       </c>
       <c r="BI19" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="BJ19" t="n" s="10">
         <v>85.1</v>
@@ -8882,19 +8882,19 @@
         <v>85.2</v>
       </c>
       <c r="BN19" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="BO19" t="n" s="10">
         <v>85.2</v>
       </c>
       <c r="BP19" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="BQ19" t="n" s="10">
         <v>85.3</v>
       </c>
       <c r="BR19" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="BS19" t="n" s="10">
         <v>85.5</v>
@@ -8906,7 +8906,7 @@
         <v>85.9</v>
       </c>
       <c r="BV19" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="BW19" t="n" s="10">
         <v>86.3</v>
@@ -8978,7 +8978,7 @@
         <v>87.8</v>
       </c>
       <c r="CT19" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="CU19" t="n" s="10">
         <v>87.4</v>
@@ -8987,7 +8987,7 @@
         <v>87.3</v>
       </c>
       <c r="CW19" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="CX19" t="n" s="10">
         <v>87.0</v>
@@ -9032,7 +9032,7 @@
         <v>85.8</v>
       </c>
       <c r="DL19" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DM19" t="n" s="10">
         <v>85.8</v>
@@ -9044,13 +9044,13 @@
         <v>85.9</v>
       </c>
       <c r="DP19" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="DQ19" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="DR19" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="DS19" t="n" s="10">
         <v>86.5</v>
@@ -10533,7 +10533,7 @@
         <v>100.6</v>
       </c>
       <c r="CA24" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CB24" t="n" s="10">
         <v>99.5</v>
@@ -10599,7 +10599,7 @@
         <v>100.7</v>
       </c>
       <c r="CW24" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="CX24" t="n" s="10">
         <v>99.9</v>
@@ -10671,13 +10671,13 @@
         <v>104.4</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="DV24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="DX24" t="n" s="10">
         <v>104.9</v>
@@ -10925,7 +10925,7 @@
         <v>99.6</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BY25" t="n" s="10">
         <v>99.9</v>
@@ -10991,7 +10991,7 @@
         <v>101.0</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CU25" t="n" s="10">
         <v>101.0</v>
@@ -11051,7 +11051,7 @@
         <v>102.5</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="DO25" t="n" s="10">
         <v>103.0</v>
@@ -11096,7 +11096,7 @@
         <v>105.8</v>
       </c>
       <c r="EC25" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="ED25" t="n" s="10">
         <v>106.3</v>
@@ -12313,7 +12313,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="D29" t="n" s="10">
         <v>78.2</v>
@@ -12364,7 +12364,7 @@
         <v>80.1</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="U29" t="n" s="10">
         <v>79.5</v>
@@ -12427,7 +12427,7 @@
         <v>77.5</v>
       </c>
       <c r="AO29" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="AP29" t="n" s="10">
         <v>77.2</v>
@@ -12445,7 +12445,7 @@
         <v>78.0</v>
       </c>
       <c r="AU29" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="AV29" t="n" s="10">
         <v>79.2</v>
@@ -12517,13 +12517,13 @@
         <v>78.9</v>
       </c>
       <c r="BS29" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BT29" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BU29" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="BV29" t="n" s="10">
         <v>80.9</v>
@@ -12867,7 +12867,7 @@
         <v>78.4</v>
       </c>
       <c r="BB30" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="BC30" t="n" s="10">
         <v>78.7</v>
@@ -13104,7 +13104,7 @@
         <v>89.0</v>
       </c>
       <c r="EC30" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="ED30" t="n" s="10">
         <v>89.5</v>
@@ -14326,7 +14326,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="n" s="10">
-        <v>166.9</v>
+        <v>166.8</v>
       </c>
       <c r="D35" t="n" s="10">
         <v>168.0</v>
@@ -14335,7 +14335,7 @@
         <v>171.9</v>
       </c>
       <c r="F35" t="n" s="10">
-        <v>165.0</v>
+        <v>164.9</v>
       </c>
       <c r="G35" t="n" s="10">
         <v>166.1</v>
@@ -14350,142 +14350,142 @@
         <v>168.6</v>
       </c>
       <c r="K35" t="n" s="10">
-        <v>171.0</v>
+        <v>171.1</v>
       </c>
       <c r="L35" t="n" s="10">
-        <v>174.0</v>
+        <v>174.2</v>
       </c>
       <c r="M35" t="n" s="10">
         <v>174.9</v>
       </c>
       <c r="N35" t="n" s="10">
-        <v>176.9</v>
+        <v>176.8</v>
       </c>
       <c r="O35" t="n" s="10">
         <v>177.5</v>
       </c>
       <c r="P35" t="n" s="10">
-        <v>177.0</v>
+        <v>176.9</v>
       </c>
       <c r="Q35" t="n" s="10">
         <v>178.8</v>
       </c>
       <c r="R35" t="n" s="10">
+        <v>180.0</v>
+      </c>
+      <c r="S35" t="n" s="10">
+        <v>181.6</v>
+      </c>
+      <c r="T35" t="n" s="10">
+        <v>183.3</v>
+      </c>
+      <c r="U35" t="n" s="10">
+        <v>181.5</v>
+      </c>
+      <c r="V35" t="n" s="10">
+        <v>181.0</v>
+      </c>
+      <c r="W35" t="n" s="10">
+        <v>183.5</v>
+      </c>
+      <c r="X35" t="n" s="10">
         <v>180.1</v>
-      </c>
-      <c r="S35" t="n" s="10">
-        <v>181.7</v>
-      </c>
-      <c r="T35" t="n" s="10">
-        <v>183.4</v>
-      </c>
-      <c r="U35" t="n" s="10">
-        <v>181.6</v>
-      </c>
-      <c r="V35" t="n" s="10">
-        <v>181.1</v>
-      </c>
-      <c r="W35" t="n" s="10">
-        <v>183.6</v>
-      </c>
-      <c r="X35" t="n" s="10">
-        <v>178.9</v>
       </c>
       <c r="Y35" t="n" s="10">
         <v>180.3</v>
       </c>
       <c r="Z35" t="n" s="10">
-        <v>186.1</v>
+        <v>185.8</v>
       </c>
       <c r="AA35" t="n" s="10">
-        <v>178.0</v>
+        <v>177.9</v>
       </c>
       <c r="AB35" t="n" s="10">
-        <v>181.3</v>
+        <v>181.2</v>
       </c>
       <c r="AC35" t="n" s="10">
-        <v>178.2</v>
+        <v>178.1</v>
       </c>
       <c r="AD35" t="n" s="10">
-        <v>180.0</v>
+        <v>179.9</v>
       </c>
       <c r="AE35" t="n" s="10">
-        <v>177.7</v>
+        <v>177.6</v>
       </c>
       <c r="AF35" t="n" s="10">
-        <v>177.1</v>
+        <v>176.9</v>
       </c>
       <c r="AG35" t="n" s="10">
-        <v>177.0</v>
+        <v>176.8</v>
       </c>
       <c r="AH35" t="n" s="10">
-        <v>179.5</v>
+        <v>179.2</v>
       </c>
       <c r="AI35" t="n" s="10">
-        <v>173.8</v>
+        <v>173.5</v>
       </c>
       <c r="AJ35" t="n" s="10">
-        <v>178.1</v>
+        <v>180.2</v>
       </c>
       <c r="AK35" t="n" s="10">
-        <v>177.1</v>
+        <v>176.8</v>
       </c>
       <c r="AL35" t="n" s="10">
+        <v>173.0</v>
+      </c>
+      <c r="AM35" t="n" s="10">
+        <v>175.3</v>
+      </c>
+      <c r="AN35" t="n" s="10">
+        <v>172.0</v>
+      </c>
+      <c r="AO35" t="n" s="10">
+        <v>174.3</v>
+      </c>
+      <c r="AP35" t="n" s="10">
+        <v>171.3</v>
+      </c>
+      <c r="AQ35" t="n" s="10">
         <v>173.4</v>
       </c>
-      <c r="AM35" t="n" s="10">
-        <v>175.5</v>
-      </c>
-      <c r="AN35" t="n" s="10">
-        <v>172.1</v>
-      </c>
-      <c r="AO35" t="n" s="10">
-        <v>174.5</v>
-      </c>
-      <c r="AP35" t="n" s="10">
-        <v>171.4</v>
-      </c>
-      <c r="AQ35" t="n" s="10">
-        <v>173.5</v>
-      </c>
       <c r="AR35" t="n" s="10">
+        <v>170.4</v>
+      </c>
+      <c r="AS35" t="n" s="10">
+        <v>170.1</v>
+      </c>
+      <c r="AT35" t="n" s="10">
+        <v>169.4</v>
+      </c>
+      <c r="AU35" t="n" s="10">
         <v>170.5</v>
       </c>
-      <c r="AS35" t="n" s="10">
-        <v>170.2</v>
-      </c>
-      <c r="AT35" t="n" s="10">
+      <c r="AV35" t="n" s="10">
         <v>169.5</v>
       </c>
-      <c r="AU35" t="n" s="10">
-        <v>170.6</v>
-      </c>
-      <c r="AV35" t="n" s="10">
-        <v>168.4</v>
-      </c>
       <c r="AW35" t="n" s="10">
-        <v>166.1</v>
+        <v>166.0</v>
       </c>
       <c r="AX35" t="n" s="10">
-        <v>169.1</v>
+        <v>169.0</v>
       </c>
       <c r="AY35" t="n" s="10">
-        <v>169.3</v>
+        <v>169.2</v>
       </c>
       <c r="AZ35" t="n" s="10">
-        <v>169.0</v>
+        <v>168.9</v>
       </c>
       <c r="BA35" t="n" s="10">
-        <v>165.2</v>
+        <v>165.1</v>
       </c>
       <c r="BB35" t="n" s="10">
-        <v>168.4</v>
+        <v>168.3</v>
       </c>
       <c r="BC35" t="n" s="10">
         <v>166.9</v>
       </c>
       <c r="BD35" t="n" s="10">
-        <v>166.8</v>
+        <v>166.7</v>
       </c>
       <c r="BE35" t="n" s="10">
         <v>166.5</v>
@@ -14500,7 +14500,7 @@
         <v>166.3</v>
       </c>
       <c r="BI35" t="n" s="10">
-        <v>165.4</v>
+        <v>165.5</v>
       </c>
       <c r="BJ35" t="n" s="10">
         <v>169.9</v>
@@ -14515,10 +14515,10 @@
         <v>160.0</v>
       </c>
       <c r="BN35" t="n" s="10">
-        <v>156.3</v>
+        <v>156.4</v>
       </c>
       <c r="BO35" t="n" s="10">
-        <v>153.3</v>
+        <v>153.2</v>
       </c>
       <c r="BP35" t="n" s="10">
         <v>154.7</v>
@@ -14554,13 +14554,13 @@
         <v>155.0</v>
       </c>
       <c r="CA35" t="n" s="10">
-        <v>156.6</v>
+        <v>156.7</v>
       </c>
       <c r="CB35" t="n" s="10">
-        <v>154.4</v>
+        <v>154.3</v>
       </c>
       <c r="CC35" t="n" s="10">
-        <v>150.3</v>
+        <v>150.2</v>
       </c>
       <c r="CD35" t="n" s="10">
         <v>152.4</v>
@@ -14575,7 +14575,7 @@
         <v>151.0</v>
       </c>
       <c r="CH35" t="n" s="10">
-        <v>151.8</v>
+        <v>151.7</v>
       </c>
       <c r="CI35" t="n" s="10">
         <v>149.7</v>
@@ -14587,13 +14587,13 @@
         <v>146.6</v>
       </c>
       <c r="CL35" t="n" s="10">
-        <v>146.2</v>
+        <v>146.1</v>
       </c>
       <c r="CM35" t="n" s="10">
         <v>144.5</v>
       </c>
       <c r="CN35" t="n" s="10">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="CO35" t="n" s="10">
         <v>144.5</v>
@@ -14602,7 +14602,7 @@
         <v>145.1</v>
       </c>
       <c r="CQ35" t="n" s="10">
-        <v>140.9</v>
+        <v>140.8</v>
       </c>
       <c r="CR35" t="n" s="10">
         <v>143.9</v>
@@ -14611,7 +14611,7 @@
         <v>143.4</v>
       </c>
       <c r="CT35" t="n" s="10">
-        <v>143.8</v>
+        <v>143.7</v>
       </c>
       <c r="CU35" t="n" s="10">
         <v>142.5</v>
@@ -14620,7 +14620,7 @@
         <v>141.9</v>
       </c>
       <c r="CW35" t="n" s="10">
-        <v>143.9</v>
+        <v>143.8</v>
       </c>
       <c r="CX35" t="n" s="10">
         <v>139.0</v>
@@ -14629,7 +14629,7 @@
         <v>141.0</v>
       </c>
       <c r="CZ35" t="n" s="10">
-        <v>139.0</v>
+        <v>139.1</v>
       </c>
       <c r="DA35" t="n" s="10">
         <v>139.3</v>
@@ -14650,7 +14650,7 @@
         <v>136.0</v>
       </c>
       <c r="DG35" t="n" s="10">
-        <v>135.8</v>
+        <v>135.9</v>
       </c>
       <c r="DH35" t="n" s="10">
         <v>134.3</v>
@@ -14662,10 +14662,10 @@
         <v>136.3</v>
       </c>
       <c r="DK35" t="n" s="10">
-        <v>135.9</v>
+        <v>136.0</v>
       </c>
       <c r="DL35" t="n" s="10">
-        <v>134.0</v>
+        <v>133.9</v>
       </c>
       <c r="DM35" t="n" s="10">
         <v>134.3</v>
@@ -14680,7 +14680,7 @@
         <v>133.3</v>
       </c>
       <c r="DQ35" t="n" s="10">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="DR35" t="n" s="10">
         <v>132.1</v>
@@ -14719,7 +14719,7 @@
         <v>128.5</v>
       </c>
       <c r="ED35" t="n" s="10">
-        <v>127.3</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="36">
@@ -14778,28 +14778,28 @@
         <v>180.7</v>
       </c>
       <c r="T36" t="n" s="10">
-        <v>181.1</v>
+        <v>181.2</v>
       </c>
       <c r="U36" t="n" s="10">
         <v>181.3</v>
       </c>
       <c r="V36" t="n" s="10">
+        <v>181.5</v>
+      </c>
+      <c r="W36" t="n" s="10">
         <v>181.4</v>
       </c>
-      <c r="W36" t="n" s="10">
-        <v>181.3</v>
-      </c>
       <c r="X36" t="n" s="10">
-        <v>181.0</v>
+        <v>181.2</v>
       </c>
       <c r="Y36" t="n" s="10">
-        <v>180.8</v>
+        <v>180.9</v>
       </c>
       <c r="Z36" t="n" s="10">
-        <v>180.4</v>
+        <v>180.5</v>
       </c>
       <c r="AA36" t="n" s="10">
-        <v>180.0</v>
+        <v>180.1</v>
       </c>
       <c r="AB36" t="n" s="10">
         <v>179.7</v>
@@ -14808,46 +14808,46 @@
         <v>179.2</v>
       </c>
       <c r="AD36" t="n" s="10">
-        <v>178.8</v>
+        <v>178.6</v>
       </c>
       <c r="AE36" t="n" s="10">
-        <v>178.4</v>
+        <v>178.2</v>
       </c>
       <c r="AF36" t="n" s="10">
-        <v>178.0</v>
+        <v>177.6</v>
       </c>
       <c r="AG36" t="n" s="10">
-        <v>177.6</v>
+        <v>177.2</v>
       </c>
       <c r="AH36" t="n" s="10">
-        <v>177.2</v>
+        <v>176.7</v>
       </c>
       <c r="AI36" t="n" s="10">
-        <v>176.7</v>
+        <v>176.1</v>
       </c>
       <c r="AJ36" t="n" s="10">
-        <v>176.2</v>
+        <v>175.6</v>
       </c>
       <c r="AK36" t="n" s="10">
-        <v>175.6</v>
+        <v>175.1</v>
       </c>
       <c r="AL36" t="n" s="10">
-        <v>174.9</v>
+        <v>174.5</v>
       </c>
       <c r="AM36" t="n" s="10">
-        <v>174.3</v>
+        <v>173.9</v>
       </c>
       <c r="AN36" t="n" s="10">
-        <v>173.7</v>
+        <v>173.3</v>
       </c>
       <c r="AO36" t="n" s="10">
-        <v>173.0</v>
+        <v>172.7</v>
       </c>
       <c r="AP36" t="n" s="10">
-        <v>172.4</v>
+        <v>172.2</v>
       </c>
       <c r="AQ36" t="n" s="10">
-        <v>171.8</v>
+        <v>171.7</v>
       </c>
       <c r="AR36" t="n" s="10">
         <v>171.2</v>
@@ -14856,10 +14856,10 @@
         <v>170.7</v>
       </c>
       <c r="AT36" t="n" s="10">
-        <v>170.1</v>
+        <v>170.2</v>
       </c>
       <c r="AU36" t="n" s="10">
-        <v>169.6</v>
+        <v>169.7</v>
       </c>
       <c r="AV36" t="n" s="10">
         <v>169.2</v>
@@ -14901,7 +14901,7 @@
         <v>164.1</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>163.2</v>
+        <v>163.1</v>
       </c>
       <c r="BJ36" t="n" s="10">
         <v>162.1</v>
@@ -14913,7 +14913,7 @@
         <v>159.7</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>158.6</v>
+        <v>158.5</v>
       </c>
       <c r="BN36" t="n" s="10">
         <v>157.3</v>
@@ -14934,13 +14934,13 @@
         <v>153.5</v>
       </c>
       <c r="BT36" t="n" s="10">
-        <v>153.2</v>
+        <v>153.3</v>
       </c>
       <c r="BU36" t="n" s="10">
         <v>153.2</v>
       </c>
       <c r="BV36" t="n" s="10">
-        <v>153.2</v>
+        <v>153.3</v>
       </c>
       <c r="BW36" t="n" s="10">
         <v>153.4</v>
@@ -14952,7 +14952,7 @@
         <v>153.6</v>
       </c>
       <c r="BZ36" t="n" s="10">
-        <v>153.6</v>
+        <v>153.7</v>
       </c>
       <c r="CA36" t="n" s="10">
         <v>153.6</v>
@@ -15120,7 +15120,7 @@
         <v>127.8</v>
       </c>
       <c r="ED36" t="n" s="10">
-        <v>127.5</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="37">
@@ -16334,7 +16334,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="n" s="10">
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
       <c r="D40" t="n" s="10">
         <v>116.4</v>
@@ -16358,13 +16358,13 @@
         <v>118.1</v>
       </c>
       <c r="K40" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="L40" t="n" s="10">
         <v>122.7</v>
       </c>
       <c r="M40" t="n" s="10">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="N40" t="n" s="10">
         <v>122.8</v>
@@ -16382,7 +16382,7 @@
         <v>127.2</v>
       </c>
       <c r="S40" t="n" s="10">
-        <v>128.5</v>
+        <v>128.6</v>
       </c>
       <c r="T40" t="n" s="10">
         <v>129.8</v>
@@ -16457,13 +16457,13 @@
         <v>126.1</v>
       </c>
       <c r="AR40" t="n" s="10">
-        <v>124.0</v>
+        <v>124.1</v>
       </c>
       <c r="AS40" t="n" s="10">
         <v>124.0</v>
       </c>
       <c r="AT40" t="n" s="10">
-        <v>123.7</v>
+        <v>123.6</v>
       </c>
       <c r="AU40" t="n" s="10">
         <v>124.6</v>
@@ -16496,7 +16496,7 @@
         <v>123.1</v>
       </c>
       <c r="BE40" t="n" s="10">
-        <v>122.8</v>
+        <v>122.9</v>
       </c>
       <c r="BF40" t="n" s="10">
         <v>122.2</v>
@@ -16514,7 +16514,7 @@
         <v>125.1</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="BL40" t="n" s="10">
         <v>115.7</v>
@@ -16523,13 +16523,13 @@
         <v>117.4</v>
       </c>
       <c r="BN40" t="n" s="10">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="BO40" t="n" s="10">
         <v>111.9</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="BQ40" t="n" s="10">
         <v>114.6</v>
@@ -16583,7 +16583,7 @@
         <v>111.9</v>
       </c>
       <c r="CH40" t="n" s="10">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="CI40" t="n" s="10">
         <v>111.3</v>
@@ -16619,7 +16619,7 @@
         <v>109.7</v>
       </c>
       <c r="CT40" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="CU40" t="n" s="10">
         <v>109.8</v>
@@ -16634,7 +16634,7 @@
         <v>106.7</v>
       </c>
       <c r="CY40" t="n" s="10">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="CZ40" t="n" s="10">
         <v>106.8</v>
@@ -16643,7 +16643,7 @@
         <v>107.1</v>
       </c>
       <c r="DB40" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="DC40" t="n" s="10">
         <v>106.5</v>
@@ -16688,7 +16688,7 @@
         <v>104.9</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="DR40" t="n" s="10">
         <v>103.7</v>
@@ -16712,7 +16712,7 @@
         <v>103.3</v>
       </c>
       <c r="DY40" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="DZ40" t="n" s="10">
         <v>102.4</v>
@@ -16727,7 +16727,7 @@
         <v>102.7</v>
       </c>
       <c r="ED40" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="41">
@@ -16876,7 +16876,7 @@
         <v>123.5</v>
       </c>
       <c r="AX41" t="n" s="10">
-        <v>123.5</v>
+        <v>123.4</v>
       </c>
       <c r="AY41" t="n" s="10">
         <v>123.4</v>
@@ -16915,7 +16915,7 @@
         <v>119.2</v>
       </c>
       <c r="BK41" t="n" s="10">
-        <v>118.1</v>
+        <v>118.2</v>
       </c>
       <c r="BL41" t="n" s="10">
         <v>117.1</v>
@@ -16942,7 +16942,7 @@
         <v>111.9</v>
       </c>
       <c r="BT41" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="BU41" t="n" s="10">
         <v>111.7</v>
@@ -18392,7 +18392,7 @@
         <v>174.4</v>
       </c>
       <c r="R46" t="n" s="10">
-        <v>178.8</v>
+        <v>178.7</v>
       </c>
       <c r="S46" t="n" s="10">
         <v>179.4</v>
@@ -18401,7 +18401,7 @@
         <v>180.3</v>
       </c>
       <c r="U46" t="n" s="10">
-        <v>180.1</v>
+        <v>180.0</v>
       </c>
       <c r="V46" t="n" s="10">
         <v>180.2</v>
@@ -18410,10 +18410,10 @@
         <v>178.2</v>
       </c>
       <c r="X46" t="n" s="10">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="Y46" t="n" s="10">
-        <v>181.4</v>
+        <v>181.5</v>
       </c>
       <c r="Z46" t="n" s="10">
         <v>181.5</v>
@@ -18473,10 +18473,10 @@
         <v>175.6</v>
       </c>
       <c r="AS46" t="n" s="10">
-        <v>176.9</v>
+        <v>176.8</v>
       </c>
       <c r="AT46" t="n" s="10">
-        <v>175.3</v>
+        <v>175.2</v>
       </c>
       <c r="AU46" t="n" s="10">
         <v>176.1</v>
@@ -18491,13 +18491,13 @@
         <v>173.5</v>
       </c>
       <c r="AY46" t="n" s="10">
-        <v>177.2</v>
+        <v>177.1</v>
       </c>
       <c r="AZ46" t="n" s="10">
         <v>175.7</v>
       </c>
       <c r="BA46" t="n" s="10">
-        <v>174.5</v>
+        <v>174.6</v>
       </c>
       <c r="BB46" t="n" s="10">
         <v>170.3</v>
@@ -18509,7 +18509,7 @@
         <v>171.0</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>168.4</v>
+        <v>168.5</v>
       </c>
       <c r="BF46" t="n" s="10">
         <v>166.7</v>
@@ -18536,13 +18536,13 @@
         <v>153.7</v>
       </c>
       <c r="BN46" t="n" s="10">
-        <v>148.2</v>
+        <v>148.3</v>
       </c>
       <c r="BO46" t="n" s="10">
         <v>149.0</v>
       </c>
       <c r="BP46" t="n" s="10">
-        <v>147.7</v>
+        <v>147.8</v>
       </c>
       <c r="BQ46" t="n" s="10">
         <v>148.4</v>
@@ -18557,7 +18557,7 @@
         <v>148.1</v>
       </c>
       <c r="BU46" t="n" s="10">
-        <v>149.1</v>
+        <v>149.2</v>
       </c>
       <c r="BV46" t="n" s="10">
         <v>153.1</v>
@@ -18572,10 +18572,10 @@
         <v>145.8</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>150.1</v>
+        <v>150.0</v>
       </c>
       <c r="CA46" t="n" s="10">
-        <v>147.2</v>
+        <v>147.3</v>
       </c>
       <c r="CB46" t="n" s="10">
         <v>144.3</v>
@@ -18614,7 +18614,7 @@
         <v>142.3</v>
       </c>
       <c r="CN46" t="n" s="10">
-        <v>142.6</v>
+        <v>142.5</v>
       </c>
       <c r="CO46" t="n" s="10">
         <v>143.6</v>
@@ -18656,7 +18656,7 @@
         <v>126.8</v>
       </c>
       <c r="DB46" t="n" s="10">
-        <v>127.0</v>
+        <v>126.9</v>
       </c>
       <c r="DC46" t="n" s="10">
         <v>126.9</v>
@@ -18674,7 +18674,7 @@
         <v>123.0</v>
       </c>
       <c r="DH46" t="n" s="10">
-        <v>124.8</v>
+        <v>124.7</v>
       </c>
       <c r="DI46" t="n" s="10">
         <v>124.8</v>
@@ -18692,7 +18692,7 @@
         <v>127.5</v>
       </c>
       <c r="DN46" t="n" s="10">
-        <v>127.2</v>
+        <v>127.1</v>
       </c>
       <c r="DO46" t="n" s="10">
         <v>126.7</v>
@@ -18716,7 +18716,7 @@
         <v>128.6</v>
       </c>
       <c r="DV46" t="n" s="10">
-        <v>128.9</v>
+        <v>128.8</v>
       </c>
       <c r="DW46" t="n" s="10">
         <v>126.4</v>
@@ -18740,7 +18740,7 @@
         <v>125.3</v>
       </c>
       <c r="ED46" t="n" s="10">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
     </row>
     <row r="47">
@@ -18874,7 +18874,7 @@
         <v>176.7</v>
       </c>
       <c r="AS47" t="n" s="10">
-        <v>176.4</v>
+        <v>176.3</v>
       </c>
       <c r="AT47" t="n" s="10">
         <v>176.1</v>
@@ -19084,7 +19084,7 @@
         <v>125.9</v>
       </c>
       <c r="DK47" t="n" s="10">
-        <v>126.4</v>
+        <v>126.3</v>
       </c>
       <c r="DL47" t="n" s="10">
         <v>126.8</v>
@@ -19123,7 +19123,7 @@
         <v>128.1</v>
       </c>
       <c r="DX47" t="n" s="10">
-        <v>127.6</v>
+        <v>127.7</v>
       </c>
       <c r="DY47" t="n" s="10">
         <v>127.1</v>
@@ -20604,7 +20604,7 @@
         <v>101.4</v>
       </c>
       <c r="CH51" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="CI51" t="n" s="10">
         <v>103.9</v>
@@ -20658,7 +20658,7 @@
         <v>91.6</v>
       </c>
       <c r="CZ51" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DA51" t="n" s="10">
         <v>91.5</v>
@@ -22368,67 +22368,67 @@
         <v>35</v>
       </c>
       <c r="C57" t="n" s="10">
-        <v>23.9</v>
+        <v>24.0</v>
       </c>
       <c r="D57" t="n" s="10">
         <v>24.1</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>24.0</v>
+        <v>23.9</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="J57" t="n" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="K57" t="n" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="L57" t="n" s="10">
         <v>24.6</v>
       </c>
-      <c r="K57" t="n" s="10">
-        <v>24.3</v>
-      </c>
-      <c r="L57" t="n" s="10">
-        <v>24.5</v>
-      </c>
       <c r="M57" t="n" s="10">
+        <v>25.1</v>
+      </c>
+      <c r="N57" t="n" s="10">
         <v>25.0</v>
-      </c>
-      <c r="N57" t="n" s="10">
-        <v>25.2</v>
       </c>
       <c r="O57" t="n" s="10">
         <v>23.8</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="S57" t="n" s="10">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="T57" t="n" s="10">
         <v>24.0</v>
       </c>
       <c r="U57" t="n" s="10">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="V57" t="n" s="10">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="W57" t="n" s="10">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="X57" t="n" s="10">
         <v>24.2</v>
@@ -22437,13 +22437,13 @@
         <v>23.7</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AA57" t="n" s="10">
         <v>24.4</v>
       </c>
       <c r="AB57" t="n" s="10">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="AC57" t="n" s="10">
         <v>24.5</v>
@@ -22455,25 +22455,25 @@
         <v>24.6</v>
       </c>
       <c r="AF57" t="n" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="AG57" t="n" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="AJ57" t="n" s="10">
+        <v>23.8</v>
+      </c>
+      <c r="AK57" t="n" s="10">
         <v>24.4</v>
       </c>
-      <c r="AG57" t="n" s="10">
-        <v>24.1</v>
-      </c>
-      <c r="AH57" t="n" s="10">
-        <v>24.4</v>
-      </c>
-      <c r="AI57" t="n" s="10">
-        <v>24.0</v>
-      </c>
-      <c r="AJ57" t="n" s="10">
-        <v>23.9</v>
-      </c>
-      <c r="AK57" t="n" s="10">
-        <v>24.3</v>
-      </c>
       <c r="AL57" t="n" s="10">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AM57" t="n" s="10">
         <v>24.0</v>
@@ -22482,22 +22482,22 @@
         <v>23.9</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="AQ57" t="n" s="10">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AR57" t="n" s="10">
-        <v>24.0</v>
+        <v>23.8</v>
       </c>
       <c r="AS57" t="n" s="10">
         <v>24.6</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AU57" t="n" s="10">
         <v>24.8</v>
@@ -22506,10 +22506,10 @@
         <v>24.9</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="AY57" t="n" s="10">
         <v>25.8</v>
@@ -22518,25 +22518,25 @@
         <v>25.8</v>
       </c>
       <c r="BA57" t="n" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="BB57" t="n" s="10">
         <v>26.2</v>
       </c>
-      <c r="BB57" t="n" s="10">
+      <c r="BC57" t="n" s="10">
+        <v>26.0</v>
+      </c>
+      <c r="BD57" t="n" s="10">
+        <v>26.8</v>
+      </c>
+      <c r="BE57" t="n" s="10">
         <v>26.1</v>
-      </c>
-      <c r="BC57" t="n" s="10">
-        <v>26.1</v>
-      </c>
-      <c r="BD57" t="n" s="10">
-        <v>26.7</v>
-      </c>
-      <c r="BE57" t="n" s="10">
-        <v>26.2</v>
       </c>
       <c r="BF57" t="n" s="10">
         <v>26.2</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="BH57" t="n" s="10">
         <v>26.1</v>
@@ -22548,22 +22548,22 @@
         <v>26.4</v>
       </c>
       <c r="BK57" t="n" s="10">
-        <v>26.9</v>
+        <v>27.0</v>
       </c>
       <c r="BL57" t="n" s="10">
         <v>26.9</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="BO57" t="n" s="10">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="BP57" t="n" s="10">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="BQ57" t="n" s="10">
         <v>28.4</v>
@@ -22572,7 +22572,7 @@
         <v>29.2</v>
       </c>
       <c r="BS57" t="n" s="10">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="BT57" t="n" s="10">
         <v>30.6</v>
@@ -22581,28 +22581,28 @@
         <v>29.1</v>
       </c>
       <c r="BV57" t="n" s="10">
-        <v>30.0</v>
+        <v>29.7</v>
       </c>
       <c r="BW57" t="n" s="10">
         <v>30.3</v>
       </c>
       <c r="BX57" t="n" s="10">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="CB57" t="n" s="10">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="CC57" t="n" s="10">
-        <v>33.9</v>
+        <v>34.0</v>
       </c>
       <c r="CD57" t="n" s="10">
         <v>33.2</v>
@@ -22617,34 +22617,34 @@
         <v>33.8</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="CI57" t="n" s="10">
         <v>34.4</v>
       </c>
       <c r="CJ57" t="n" s="10">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="CK57" t="n" s="10">
         <v>34.6</v>
       </c>
       <c r="CL57" t="n" s="10">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="CM57" t="n" s="10">
         <v>32.8</v>
       </c>
       <c r="CN57" t="n" s="10">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="CO57" t="n" s="10">
         <v>32.9</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>34.0</v>
+        <v>34.1</v>
       </c>
       <c r="CR57" t="n" s="10">
         <v>34.0</v>
@@ -22653,7 +22653,7 @@
         <v>33.6</v>
       </c>
       <c r="CT57" t="n" s="10">
-        <v>33.9</v>
+        <v>34.0</v>
       </c>
       <c r="CU57" t="n" s="10">
         <v>31.6</v>
@@ -22662,16 +22662,16 @@
         <v>30.8</v>
       </c>
       <c r="CW57" t="n" s="10">
-        <v>31.0</v>
+        <v>31.2</v>
       </c>
       <c r="CX57" t="n" s="10">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="CZ57" t="n" s="10">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="DA57" t="n" s="10">
         <v>30.8</v>
@@ -22686,7 +22686,7 @@
         <v>30.4</v>
       </c>
       <c r="DE57" t="n" s="10">
-        <v>31.0</v>
+        <v>31.1</v>
       </c>
       <c r="DF57" t="n" s="10">
         <v>30.9</v>
@@ -22698,22 +22698,22 @@
         <v>31.6</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>30.9</v>
+        <v>31.0</v>
       </c>
       <c r="DJ57" t="n" s="10">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="DK57" t="n" s="10">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="DL57" t="n" s="10">
-        <v>31.0</v>
+        <v>31.1</v>
       </c>
       <c r="DM57" t="n" s="10">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="DO57" t="n" s="10">
         <v>31.8</v>
@@ -22722,19 +22722,19 @@
         <v>31.7</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="DR57" t="n" s="10">
         <v>31.0</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="DT57" t="n" s="10">
         <v>33.6</v>
       </c>
       <c r="DU57" t="n" s="10">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="DV57" t="n" s="10">
         <v>34.1</v>
@@ -22743,7 +22743,7 @@
         <v>35.2</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="DY57" t="n" s="10">
         <v>35.3</v>
@@ -22758,10 +22758,10 @@
         <v>36.8</v>
       </c>
       <c r="EC57" t="n" s="10">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="ED57" t="n" s="10">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="58">
@@ -22832,13 +22832,13 @@
         <v>24.0</v>
       </c>
       <c r="X58" t="n" s="10">
-        <v>24.0</v>
+        <v>24.1</v>
       </c>
       <c r="Y58" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA58" t="n" s="10">
         <v>24.3</v>
@@ -22865,7 +22865,7 @@
         <v>24.2</v>
       </c>
       <c r="AI58" t="n" s="10">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AJ58" t="n" s="10">
         <v>24.1</v>
@@ -22883,7 +22883,7 @@
         <v>24.1</v>
       </c>
       <c r="AO58" t="n" s="10">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AP58" t="n" s="10">
         <v>24.2</v>
@@ -22898,7 +22898,7 @@
         <v>24.5</v>
       </c>
       <c r="AT58" t="n" s="10">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AU58" t="n" s="10">
         <v>24.8</v>
@@ -22934,7 +22934,7 @@
         <v>26.3</v>
       </c>
       <c r="BF58" t="n" s="10">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="BG58" t="n" s="10">
         <v>26.4</v>
@@ -22964,34 +22964,34 @@
         <v>27.6</v>
       </c>
       <c r="BP58" t="n" s="10">
-        <v>28.0</v>
+        <v>27.9</v>
       </c>
       <c r="BQ58" t="n" s="10">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="BR58" t="n" s="10">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="BS58" t="n" s="10">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="BT58" t="n" s="10">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>30.0</v>
+        <v>29.9</v>
       </c>
       <c r="BV58" t="n" s="10">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="BW58" t="n" s="10">
         <v>30.8</v>
       </c>
       <c r="BX58" t="n" s="10">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="BY58" t="n" s="10">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="BZ58" t="n" s="10">
         <v>32.1</v>
@@ -23000,7 +23000,7 @@
         <v>32.5</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="CC58" t="n" s="10">
         <v>33.2</v>
@@ -23012,7 +23012,7 @@
         <v>33.7</v>
       </c>
       <c r="CF58" t="n" s="10">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="CG58" t="n" s="10">
         <v>33.9</v>
@@ -23030,7 +23030,7 @@
         <v>34.1</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>34.0</v>
+        <v>34.1</v>
       </c>
       <c r="CM58" t="n" s="10">
         <v>34.0</v>
@@ -23042,10 +23042,10 @@
         <v>33.8</v>
       </c>
       <c r="CP58" t="n" s="10">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="CQ58" t="n" s="10">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="CR58" t="n" s="10">
         <v>33.2</v>
@@ -23066,31 +23066,31 @@
         <v>31.6</v>
       </c>
       <c r="CX58" t="n" s="10">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="CY58" t="n" s="10">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="CZ58" t="n" s="10">
-        <v>30.9</v>
+        <v>31.0</v>
       </c>
       <c r="DA58" t="n" s="10">
         <v>30.8</v>
       </c>
       <c r="DB58" t="n" s="10">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="DC58" t="n" s="10">
         <v>30.7</v>
       </c>
       <c r="DD58" t="n" s="10">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="DE58" t="n" s="10">
         <v>30.9</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>30.9</v>
+        <v>31.0</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>31.0</v>
@@ -23099,10 +23099,10 @@
         <v>31.1</v>
       </c>
       <c r="DI58" t="n" s="10">
-        <v>31.0</v>
+        <v>31.1</v>
       </c>
       <c r="DJ58" t="n" s="10">
-        <v>31.0</v>
+        <v>31.1</v>
       </c>
       <c r="DK58" t="n" s="10">
         <v>31.1</v>
@@ -23111,13 +23111,13 @@
         <v>31.1</v>
       </c>
       <c r="DM58" t="n" s="10">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="DN58" t="n" s="10">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="DO58" t="n" s="10">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="DP58" t="n" s="10">
         <v>31.9</v>
@@ -23144,13 +23144,13 @@
         <v>34.4</v>
       </c>
       <c r="DX58" t="n" s="10">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="DY58" t="n" s="10">
         <v>35.3</v>
       </c>
       <c r="DZ58" t="n" s="10">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="EA58" t="n" s="10">
         <v>36.2</v>
@@ -24409,19 +24409,19 @@
         <v>98.8</v>
       </c>
       <c r="N62" t="n" s="10">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="O62" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="P62" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="Q62" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="R62" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="S62" t="n" s="10">
         <v>92.5</v>
@@ -24526,7 +24526,7 @@
         <v>94.7</v>
       </c>
       <c r="BA62" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="BB62" t="n" s="10">
         <v>94.3</v>
@@ -24535,7 +24535,7 @@
         <v>94.8</v>
       </c>
       <c r="BD62" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BE62" t="n" s="10">
         <v>94.7</v>
@@ -24568,7 +24568,7 @@
         <v>95.1</v>
       </c>
       <c r="BO62" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="BP62" t="n" s="10">
         <v>97.5</v>
@@ -24586,10 +24586,10 @@
         <v>104.2</v>
       </c>
       <c r="BU62" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="BV62" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="BW62" t="n" s="10">
         <v>102.7</v>
@@ -24616,7 +24616,7 @@
         <v>104.9</v>
       </c>
       <c r="CE62" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="CF62" t="n" s="10">
         <v>101.5</v>
@@ -24652,7 +24652,7 @@
         <v>96.5</v>
       </c>
       <c r="CQ62" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CR62" t="n" s="10">
         <v>97.1</v>
@@ -24721,7 +24721,7 @@
         <v>77.1</v>
       </c>
       <c r="DN62" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="DO62" t="n" s="10">
         <v>76.9</v>
@@ -24730,7 +24730,7 @@
         <v>76.4</v>
       </c>
       <c r="DQ62" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DR62" t="n" s="10">
         <v>74.6</v>
@@ -24789,7 +24789,7 @@
         <v>97.0</v>
       </c>
       <c r="G63" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="H63" t="n" s="10">
         <v>97.2</v>
@@ -24834,7 +24834,7 @@
         <v>93.9</v>
       </c>
       <c r="V63" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="W63" t="n" s="10">
         <v>94.1</v>
@@ -24849,7 +24849,7 @@
         <v>94.6</v>
       </c>
       <c r="AA63" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AB63" t="n" s="10">
         <v>94.7</v>
@@ -24876,13 +24876,13 @@
         <v>92.6</v>
       </c>
       <c r="AJ63" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="AK63" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="AL63" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="AM63" t="n" s="10">
         <v>91.7</v>
@@ -24999,7 +24999,7 @@
         <v>104.6</v>
       </c>
       <c r="BY63" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="BZ63" t="n" s="10">
         <v>105.4</v>
@@ -25038,7 +25038,7 @@
         <v>101.8</v>
       </c>
       <c r="CL63" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CM63" t="n" s="10">
         <v>100.0</v>
@@ -25059,7 +25059,7 @@
         <v>94.4</v>
       </c>
       <c r="CS63" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="CT63" t="n" s="10">
         <v>91.9</v>
@@ -25131,7 +25131,7 @@
         <v>76.7</v>
       </c>
       <c r="DQ63" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="DR63" t="n" s="10">
         <v>77.2</v>
@@ -26422,7 +26422,7 @@
         <v>129.8</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>135.2</v>
+        <v>135.1</v>
       </c>
       <c r="O68" t="n" s="10">
         <v>125.7</v>
@@ -26725,7 +26725,7 @@
         <v>105.2</v>
       </c>
       <c r="DK68" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="DL68" t="n" s="10">
         <v>103.6</v>
@@ -26838,7 +26838,7 @@
         <v>125.8</v>
       </c>
       <c r="S69" t="n" s="10">
-        <v>125.2</v>
+        <v>125.3</v>
       </c>
       <c r="T69" t="n" s="10">
         <v>124.5</v>
@@ -26964,7 +26964,7 @@
         <v>118.8</v>
       </c>
       <c r="BI69" t="n" s="10">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="BJ69" t="n" s="10">
         <v>118.1</v>
@@ -28421,7 +28421,7 @@
         <v>110.4</v>
       </c>
       <c r="K73" t="n" s="10">
-        <v>111.1</v>
+        <v>111.0</v>
       </c>
       <c r="L73" t="n" s="10">
         <v>112.0</v>
@@ -28511,13 +28511,13 @@
         <v>106.8</v>
       </c>
       <c r="AO73" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AP73" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="AQ73" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AR73" t="n" s="10">
         <v>105.9</v>
@@ -28649,7 +28649,7 @@
         <v>106.9</v>
       </c>
       <c r="CI73" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="CJ73" t="n" s="10">
         <v>104.2</v>
@@ -28664,7 +28664,7 @@
         <v>104.8</v>
       </c>
       <c r="CN73" t="n" s="10">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="CO73" t="n" s="10">
         <v>102.5</v>
@@ -28703,7 +28703,7 @@
         <v>95.8</v>
       </c>
       <c r="DA73" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="DB73" t="n" s="10">
         <v>97.6</v>
@@ -28978,7 +28978,7 @@
         <v>105.8</v>
       </c>
       <c r="BK74" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="BL74" t="n" s="10">
         <v>105.2</v>
@@ -29083,7 +29083,7 @@
         <v>101.4</v>
       </c>
       <c r="CT74" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="CU74" t="n" s="10">
         <v>100.1</v>
@@ -30416,16 +30416,16 @@
         <v>95.6</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>96.2</v>
@@ -30434,7 +30434,7 @@
         <v>97.4</v>
       </c>
       <c r="K79" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="L79" t="n" s="10">
         <v>99.6</v>
@@ -30443,7 +30443,7 @@
         <v>97.3</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="O79" t="n" s="10">
         <v>97.3</v>
@@ -30455,7 +30455,7 @@
         <v>100.0</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>100.3</v>
@@ -30464,10 +30464,10 @@
         <v>98.2</v>
       </c>
       <c r="U79" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="W79" t="n" s="10">
         <v>97.5</v>
@@ -30479,7 +30479,7 @@
         <v>99.0</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AA79" t="n" s="10">
         <v>97.9</v>
@@ -30497,16 +30497,16 @@
         <v>96.5</v>
       </c>
       <c r="AF79" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="AH79" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="AI79" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="AJ79" t="n" s="10">
         <v>94.7</v>
@@ -30515,7 +30515,7 @@
         <v>95.8</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="AM79" t="n" s="10">
         <v>97.2</v>
@@ -30524,16 +30524,16 @@
         <v>93.9</v>
       </c>
       <c r="AO79" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="AQ79" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="AR79" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="AS79" t="n" s="10">
         <v>95.2</v>
@@ -30545,10 +30545,10 @@
         <v>95.9</v>
       </c>
       <c r="AV79" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="AW79" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="AX79" t="n" s="10">
         <v>93.9</v>
@@ -30575,13 +30575,13 @@
         <v>97.6</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BG79" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="BH79" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="BI79" t="n" s="10">
         <v>95.2</v>
@@ -30590,61 +30590,61 @@
         <v>95.3</v>
       </c>
       <c r="BK79" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="BL79" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="BO79" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="BR79" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="BS79" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="BT79" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="BU79" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="BV79" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="BW79" t="n" s="10">
         <v>81.0</v>
       </c>
       <c r="BX79" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="BY79" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="BZ79" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="CA79" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CB79" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="CC79" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CD79" t="n" s="10">
         <v>84.9</v>
@@ -30671,7 +30671,7 @@
         <v>88.6</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="CM79" t="n" s="10">
         <v>83.9</v>
@@ -30683,10 +30683,10 @@
         <v>84.9</v>
       </c>
       <c r="CP79" t="n" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="CQ79" t="n" s="10">
         <v>84.0</v>
-      </c>
-      <c r="CQ79" t="n" s="10">
-        <v>84.1</v>
       </c>
       <c r="CR79" t="n" s="10">
         <v>84.1</v>
@@ -30695,7 +30695,7 @@
         <v>86.3</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="CU79" t="n" s="10">
         <v>82.0</v>
@@ -30704,13 +30704,13 @@
         <v>85.0</v>
       </c>
       <c r="CW79" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="CY79" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="CZ79" t="n" s="10">
         <v>83.5</v>
@@ -30722,7 +30722,7 @@
         <v>84.3</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="DD79" t="n" s="10">
         <v>85.6</v>
@@ -30740,31 +30740,31 @@
         <v>80.1</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DJ79" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="DM79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="DN79" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="DO79" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="DR79" t="n" s="10">
         <v>79.7</v>
@@ -30776,7 +30776,7 @@
         <v>78.7</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>81.2</v>
+        <v>81.4</v>
       </c>
       <c r="DV79" t="n" s="10">
         <v>76.9</v>
@@ -30785,7 +30785,7 @@
         <v>74.7</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="DY79" t="n" s="10">
         <v>77.4</v>
@@ -30803,7 +30803,7 @@
         <v>75.9</v>
       </c>
       <c r="ED79" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="80">
@@ -30826,13 +30826,13 @@
         <v>96.1</v>
       </c>
       <c r="H80" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="J80" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="K80" t="n" s="10">
         <v>97.3</v>
@@ -30919,10 +30919,10 @@
         <v>96.1</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="AN80" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="AO80" t="n" s="10">
         <v>95.5</v>
@@ -30931,7 +30931,7 @@
         <v>95.4</v>
       </c>
       <c r="AQ80" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="AR80" t="n" s="10">
         <v>94.9</v>
@@ -30949,7 +30949,7 @@
         <v>94.9</v>
       </c>
       <c r="AW80" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="AX80" t="n" s="10">
         <v>94.9</v>
@@ -30958,7 +30958,7 @@
         <v>94.8</v>
       </c>
       <c r="AZ80" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BA80" t="n" s="10">
         <v>95.2</v>
@@ -31000,19 +31000,19 @@
         <v>90.6</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="BO80" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="BP80" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="BQ80" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="BS80" t="n" s="10">
         <v>84.7</v>
@@ -31024,19 +31024,19 @@
         <v>83.7</v>
       </c>
       <c r="BV80" t="n" s="10">
+        <v>83.3</v>
+      </c>
+      <c r="BW80" t="n" s="10">
         <v>83.2</v>
       </c>
-      <c r="BW80" t="n" s="10">
+      <c r="BX80" t="n" s="10">
         <v>83.1</v>
-      </c>
-      <c r="BX80" t="n" s="10">
-        <v>83.0</v>
       </c>
       <c r="BY80" t="n" s="10">
         <v>83.1</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="CA80" t="n" s="10">
         <v>83.3</v>
@@ -31057,7 +31057,7 @@
         <v>83.9</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CH80" t="n" s="10">
         <v>84.5</v>
@@ -31075,13 +31075,13 @@
         <v>85.2</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="CN80" t="n" s="10">
         <v>85.1</v>
       </c>
       <c r="CO80" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="CP80" t="n" s="10">
         <v>84.9</v>
@@ -31090,7 +31090,7 @@
         <v>84.7</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="CS80" t="n" s="10">
         <v>84.4</v>
@@ -31102,13 +31102,13 @@
         <v>84.1</v>
       </c>
       <c r="CV80" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CW80" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CY80" t="n" s="10">
         <v>84.1</v>
@@ -31123,13 +31123,13 @@
         <v>83.7</v>
       </c>
       <c r="DC80" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="DD80" t="n" s="10">
         <v>83.2</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>82.4</v>
@@ -31138,7 +31138,7 @@
         <v>82.0</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DI80" t="n" s="10">
         <v>81.0</v>
@@ -31168,7 +31168,7 @@
         <v>79.3</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="DS80" t="n" s="10">
         <v>78.7</v>
@@ -31189,7 +31189,7 @@
         <v>76.8</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="DZ80" t="n" s="10">
         <v>76.3</v>
@@ -31201,10 +31201,10 @@
         <v>76.0</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="ED80" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="81">
@@ -32418,22 +32418,22 @@
         <v>35</v>
       </c>
       <c r="C84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="D84" t="n" s="10">
         <v>70.3</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="F84" t="n" s="10">
         <v>71.3</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>70.4</v>
+        <v>70.3</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>71.4</v>
@@ -32442,16 +32442,16 @@
         <v>73.0</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="L84" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.8</v>
       </c>
       <c r="O84" t="n" s="10">
         <v>71.1</v>
@@ -32460,19 +32460,19 @@
         <v>71.8</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="T84" t="n" s="10">
         <v>72.3</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="V84" t="n" s="10">
         <v>70.8</v>
@@ -32484,16 +32484,16 @@
         <v>70.7</v>
       </c>
       <c r="Y84" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="AA84" t="n" s="10">
         <v>72.2</v>
       </c>
       <c r="AB84" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AC84" t="n" s="10">
         <v>74.3</v>
@@ -32505,16 +32505,16 @@
         <v>73.2</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="AG84" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="AH84" t="n" s="10">
         <v>76.8</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="AJ84" t="n" s="10">
         <v>75.1</v>
@@ -32523,34 +32523,34 @@
         <v>75.0</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>77.1</v>
       </c>
       <c r="AN84" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>72.2</v>
+        <v>72.0</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="AQ84" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="AR84" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="AS84" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AU84" t="n" s="10">
-        <v>72.9</v>
+        <v>73.0</v>
       </c>
       <c r="AV84" t="n" s="10">
         <v>74.8</v>
@@ -32559,7 +32559,7 @@
         <v>73.1</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="AY84" t="n" s="10">
         <v>70.9</v>
@@ -32571,19 +32571,19 @@
         <v>72.6</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="BC84" t="n" s="10">
         <v>71.9</v>
       </c>
       <c r="BD84" t="n" s="10">
+        <v>71.5</v>
+      </c>
+      <c r="BE84" t="n" s="10">
         <v>71.6</v>
       </c>
-      <c r="BE84" t="n" s="10">
-        <v>71.5</v>
-      </c>
       <c r="BF84" t="n" s="10">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="BG84" t="n" s="10">
         <v>69.5</v>
@@ -32592,13 +32592,13 @@
         <v>66.4</v>
       </c>
       <c r="BI84" t="n" s="10">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="BJ84" t="n" s="10">
-        <v>67.8</v>
+        <v>67.9</v>
       </c>
       <c r="BK84" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="BL84" t="n" s="10">
         <v>70.9</v>
@@ -32607,13 +32607,13 @@
         <v>71.4</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="BO84" t="n" s="10">
-        <v>67.1</v>
+        <v>67.0</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="BQ84" t="n" s="10">
         <v>67.0</v>
@@ -32622,7 +32622,7 @@
         <v>70.0</v>
       </c>
       <c r="BS84" t="n" s="10">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="BT84" t="n" s="10">
         <v>71.7</v>
@@ -32631,28 +32631,28 @@
         <v>71.2</v>
       </c>
       <c r="BV84" t="n" s="10">
-        <v>70.4</v>
+        <v>70.6</v>
       </c>
       <c r="BW84" t="n" s="10">
         <v>70.1</v>
       </c>
       <c r="BX84" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BY84" t="n" s="10">
         <v>69.2</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="CA84" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="CB84" t="n" s="10">
         <v>73.0</v>
       </c>
       <c r="CC84" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="CD84" t="n" s="10">
         <v>76.0</v>
@@ -32667,7 +32667,7 @@
         <v>75.7</v>
       </c>
       <c r="CH84" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="CI84" t="n" s="10">
         <v>78.7</v>
@@ -32679,13 +32679,13 @@
         <v>78.5</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="CM84" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="CN84" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="CO84" t="n" s="10">
         <v>75.4</v>
@@ -32694,7 +32694,7 @@
         <v>74.7</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>72.7</v>
@@ -32703,7 +32703,7 @@
         <v>74.7</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>71.6</v>
@@ -32712,13 +32712,13 @@
         <v>73.9</v>
       </c>
       <c r="CW84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="CY84" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="CZ84" t="n" s="10">
         <v>72.9</v>
@@ -32733,10 +32733,10 @@
         <v>73.6</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="DE84" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="DF84" t="n" s="10">
         <v>73.6</v>
@@ -32754,28 +32754,28 @@
         <v>72.9</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>70.7</v>
+        <v>70.6</v>
       </c>
       <c r="DM84" t="n" s="10">
         <v>69.4</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="DP84" t="n" s="10">
         <v>69.3</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="DS84" t="n" s="10">
         <v>68.8</v>
@@ -32784,7 +32784,7 @@
         <v>69.1</v>
       </c>
       <c r="DU84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
       <c r="DV84" t="n" s="10">
         <v>69.0</v>
@@ -32793,10 +32793,10 @@
         <v>68.5</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="DZ84" t="n" s="10">
         <v>68.6</v>
@@ -32808,10 +32808,10 @@
         <v>68.2</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>68.8</v>
+        <v>68.9</v>
       </c>
     </row>
     <row r="85">
@@ -32840,7 +32840,7 @@
         <v>71.7</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="K85" t="n" s="10">
         <v>71.9</v>
@@ -32861,7 +32861,7 @@
         <v>71.8</v>
       </c>
       <c r="Q85" t="n" s="10">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="R85" t="n" s="10">
         <v>71.7</v>
@@ -32924,22 +32924,22 @@
         <v>75.3</v>
       </c>
       <c r="AL85" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AM85" t="n" s="10">
         <v>75.0</v>
       </c>
       <c r="AN85" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="AO85" t="n" s="10">
         <v>74.5</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="AQ85" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="AR85" t="n" s="10">
         <v>73.6</v>
@@ -32948,13 +32948,13 @@
         <v>73.3</v>
       </c>
       <c r="AT85" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="AU85" t="n" s="10">
         <v>72.9</v>
       </c>
       <c r="AV85" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="AW85" t="n" s="10">
         <v>72.7</v>
@@ -32969,7 +32969,7 @@
         <v>71.9</v>
       </c>
       <c r="BA85" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="BB85" t="n" s="10">
         <v>71.3</v>
@@ -33020,7 +33020,7 @@
         <v>69.0</v>
       </c>
       <c r="BR85" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="BS85" t="n" s="10">
         <v>69.4</v>
@@ -33029,28 +33029,28 @@
         <v>69.7</v>
       </c>
       <c r="BU85" t="n" s="10">
-        <v>70.0</v>
+        <v>70.1</v>
       </c>
       <c r="BV85" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="BW85" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="BX85" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="BY85" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="BZ85" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="CA85" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="CB85" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="CC85" t="n" s="10">
         <v>75.1</v>
@@ -33062,10 +33062,10 @@
         <v>76.0</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="CG85" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="CH85" t="n" s="10">
         <v>76.8</v>
@@ -33086,10 +33086,10 @@
         <v>75.9</v>
       </c>
       <c r="CN85" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="CO85" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="CP85" t="n" s="10">
         <v>74.6</v>
@@ -33107,28 +33107,28 @@
         <v>73.5</v>
       </c>
       <c r="CU85" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="CV85" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="CW85" t="n" s="10">
         <v>73.4</v>
       </c>
       <c r="CX85" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="CY85" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="CZ85" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="DA85" t="n" s="10">
         <v>73.8</v>
       </c>
       <c r="DB85" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="DC85" t="n" s="10">
         <v>73.9</v>
@@ -33146,16 +33146,16 @@
         <v>73.0</v>
       </c>
       <c r="DH85" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="DI85" t="n" s="10">
-        <v>72.1</v>
+        <v>72.0</v>
       </c>
       <c r="DJ85" t="n" s="10">
         <v>71.6</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="DL85" t="n" s="10">
         <v>70.7</v>
@@ -33200,13 +33200,13 @@
         <v>69.7</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="EA85" t="n" s="10">
         <v>69.8</v>
       </c>
       <c r="EB85" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="EC85" t="n" s="10">
         <v>70.2</v>
@@ -34431,7 +34431,7 @@
         <v>35</v>
       </c>
       <c r="C90" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="D90" t="n" s="10">
         <v>90.3</v>
@@ -34458,7 +34458,7 @@
         <v>89.7</v>
       </c>
       <c r="L90" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="M90" t="n" s="10">
         <v>91.1</v>
@@ -34611,7 +34611,7 @@
         <v>94.2</v>
       </c>
       <c r="BK90" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="BL90" t="n" s="10">
         <v>92.6</v>
@@ -34623,7 +34623,7 @@
         <v>93.5</v>
       </c>
       <c r="BO90" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="BP90" t="n" s="10">
         <v>93.9</v>
@@ -34785,7 +34785,7 @@
         <v>92.8</v>
       </c>
       <c r="DQ90" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DR90" t="n" s="10">
         <v>92.5</v>
@@ -34812,7 +34812,7 @@
         <v>93.1</v>
       </c>
       <c r="DZ90" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="EA90" t="n" s="10">
         <v>92.5</v>
@@ -34821,7 +34821,7 @@
         <v>92.9</v>
       </c>
       <c r="EC90" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="ED90" t="n" s="10">
         <v>92.9</v>
@@ -34925,7 +34925,7 @@
         <v>92.3</v>
       </c>
       <c r="AH91" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="AI91" t="n" s="10">
         <v>92.3</v>
@@ -36469,7 +36469,7 @@
         <v>80.2</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="N95" t="n" s="10">
         <v>79.6</v>
@@ -36511,7 +36511,7 @@
         <v>80.8</v>
       </c>
       <c r="AA95" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="AB95" t="n" s="10">
         <v>80.6</v>
@@ -36553,7 +36553,7 @@
         <v>81.4</v>
       </c>
       <c r="AO95" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="AP95" t="n" s="10">
         <v>81.0</v>
@@ -36667,7 +36667,7 @@
         <v>84.0</v>
       </c>
       <c r="CA95" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="CB95" t="n" s="10">
         <v>83.1</v>
@@ -36688,7 +36688,7 @@
         <v>83.4</v>
       </c>
       <c r="CH95" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CI95" t="n" s="10">
         <v>85.7</v>
@@ -36733,7 +36733,7 @@
         <v>85.4</v>
       </c>
       <c r="CW95" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="CX95" t="n" s="10">
         <v>84.7</v>
@@ -36978,7 +36978,7 @@
         <v>81.9</v>
       </c>
       <c r="AW96" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="AX96" t="n" s="10">
         <v>82.0</v>
@@ -37062,7 +37062,7 @@
         <v>83.4</v>
       </c>
       <c r="BY96" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BZ96" t="n" s="10">
         <v>83.5</v>
@@ -37134,7 +37134,7 @@
         <v>85.8</v>
       </c>
       <c r="CW96" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CX96" t="n" s="10">
         <v>85.7</v>
@@ -37158,7 +37158,7 @@
         <v>85.1</v>
       </c>
       <c r="DE96" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="DF96" t="n" s="10">
         <v>85.0</v>
@@ -37170,7 +37170,7 @@
         <v>85.0</v>
       </c>
       <c r="DI96" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="DJ96" t="n" s="10">
         <v>85.0</v>
@@ -37233,7 +37233,7 @@
         <v>86.0</v>
       </c>
       <c r="ED96" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
     </row>
     <row r="97" ht="33.75" customHeight="true">
@@ -38467,7 +38467,7 @@
         <v>92.0</v>
       </c>
       <c r="H101" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>93.9</v>
@@ -38566,16 +38566,16 @@
         <v>93.0</v>
       </c>
       <c r="AO101" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="AP101" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="AQ101" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="AR101" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="AS101" t="n" s="10">
         <v>92.9</v>
@@ -39198,7 +39198,7 @@
         <v>101.2</v>
       </c>
       <c r="DN102" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="DO102" t="n" s="10">
         <v>101.7</v>
@@ -40460,31 +40460,31 @@
         <v>35</v>
       </c>
       <c r="C106" t="n" s="10">
-        <v>71.8</v>
+        <v>71.4</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>71.7</v>
+        <v>71.4</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>74.5</v>
+        <v>76.5</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>69.4</v>
+        <v>69.1</v>
       </c>
       <c r="G106" t="n" s="10">
-        <v>70.1</v>
+        <v>69.8</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>70.2</v>
+        <v>69.9</v>
       </c>
       <c r="I106" t="n" s="10">
-        <v>71.7</v>
+        <v>71.5</v>
       </c>
       <c r="J106" t="n" s="10">
-        <v>70.1</v>
+        <v>70.0</v>
       </c>
       <c r="K106" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="L106" t="n" s="10">
         <v>72.2</v>
@@ -40496,31 +40496,31 @@
         <v>73.0</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>72.4</v>
+        <v>72.2</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>73.4</v>
+        <v>74.4</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="S106" t="n" s="10">
+        <v>74.6</v>
+      </c>
+      <c r="T106" t="n" s="10">
+        <v>75.7</v>
+      </c>
+      <c r="U106" t="n" s="10">
+        <v>74.2</v>
+      </c>
+      <c r="V106" t="n" s="10">
         <v>74.8</v>
       </c>
-      <c r="T106" t="n" s="10">
-        <v>75.8</v>
-      </c>
-      <c r="U106" t="n" s="10">
-        <v>74.3</v>
-      </c>
-      <c r="V106" t="n" s="10">
-        <v>74.9</v>
-      </c>
       <c r="W106" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="X106" t="n" s="10">
         <v>73.2</v>
@@ -40538,7 +40538,7 @@
         <v>75.7</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>74.4</v>
@@ -40550,13 +40550,13 @@
         <v>73.4</v>
       </c>
       <c r="AG106" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="AH106" t="n" s="10">
         <v>74.7</v>
       </c>
       <c r="AI106" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="AJ106" t="n" s="10">
         <v>74.5</v>
@@ -40568,7 +40568,7 @@
         <v>73.2</v>
       </c>
       <c r="AM106" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="AN106" t="n" s="10">
         <v>72.2</v>
@@ -40598,7 +40598,7 @@
         <v>73.8</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="AX106" t="n" s="10">
         <v>72.9</v>
@@ -40622,7 +40622,7 @@
         <v>73.5</v>
       </c>
       <c r="BE106" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BF106" t="n" s="10">
         <v>73.9</v>
@@ -40652,16 +40652,16 @@
         <v>73.2</v>
       </c>
       <c r="BO106" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="BP106" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BQ106" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BR106" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BS106" t="n" s="10">
         <v>74.2</v>
@@ -40679,13 +40679,13 @@
         <v>74.4</v>
       </c>
       <c r="BX106" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="BY106" t="n" s="10">
         <v>75.1</v>
       </c>
       <c r="BZ106" t="n" s="10">
-        <v>75.8</v>
+        <v>75.9</v>
       </c>
       <c r="CA106" t="n" s="10">
         <v>76.8</v>
@@ -40709,7 +40709,7 @@
         <v>76.3</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>77.9</v>
@@ -40754,7 +40754,7 @@
         <v>80.9</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="CX106" t="n" s="10">
         <v>80.2</v>
@@ -40799,7 +40799,7 @@
         <v>84.0</v>
       </c>
       <c r="DL106" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="DM106" t="n" s="10">
         <v>82.5</v>
@@ -40811,10 +40811,10 @@
         <v>83.7</v>
       </c>
       <c r="DP106" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="DQ106" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="DR106" t="n" s="10">
         <v>84.1</v>
@@ -40853,7 +40853,7 @@
         <v>86.7</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
     </row>
     <row r="107">
@@ -40861,31 +40861,31 @@
         <v>36</v>
       </c>
       <c r="C107" t="n" s="10">
-        <v>71.6</v>
+        <v>70.6</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>71.4</v>
+        <v>70.5</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>71.3</v>
+        <v>70.5</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>71.1</v>
+        <v>70.4</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>70.9</v>
+        <v>70.3</v>
       </c>
       <c r="H107" t="n" s="10">
+        <v>70.3</v>
+      </c>
+      <c r="I107" t="n" s="10">
+        <v>70.5</v>
+      </c>
+      <c r="J107" t="n" s="10">
         <v>70.8</v>
       </c>
-      <c r="I107" t="n" s="10">
-        <v>70.8</v>
-      </c>
-      <c r="J107" t="n" s="10">
-        <v>71.0</v>
-      </c>
       <c r="K107" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="L107" t="n" s="10">
         <v>71.6</v>
@@ -40894,22 +40894,22 @@
         <v>72.0</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="Q107" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="R107" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="S107" t="n" s="10">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="T107" t="n" s="10">
         <v>74.4</v>
@@ -40918,7 +40918,7 @@
         <v>74.5</v>
       </c>
       <c r="V107" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="W107" t="n" s="10">
         <v>74.6</v>
@@ -40972,7 +40972,7 @@
         <v>73.3</v>
       </c>
       <c r="AN107" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="AO107" t="n" s="10">
         <v>73.1</v>
@@ -41074,13 +41074,13 @@
         <v>74.8</v>
       </c>
       <c r="BV107" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="BW107" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="BX107" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="BY107" t="n" s="10">
         <v>75.5</v>
@@ -41140,7 +41140,7 @@
         <v>80.1</v>
       </c>
       <c r="CR107" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="CS107" t="n" s="10">
         <v>80.4</v>
@@ -41191,13 +41191,13 @@
         <v>81.8</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="DJ107" t="n" s="10">
         <v>82.1</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="DL107" t="n" s="10">
         <v>82.5</v>
@@ -41221,7 +41221,7 @@
         <v>84.2</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="DT107" t="n" s="10">
         <v>84.6</v>
@@ -42473,10 +42473,10 @@
         <v>35</v>
       </c>
       <c r="C112" t="n" s="10">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D112" t="n" s="10">
-        <v>106.9</v>
+        <v>107.0</v>
       </c>
       <c r="E112" t="n" s="10">
         <v>114.2</v>
@@ -42485,10 +42485,10 @@
         <v>106.2</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>106.2</v>
@@ -42503,7 +42503,7 @@
         <v>112.2</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="N112" t="n" s="10">
         <v>109.4</v>
@@ -42521,13 +42521,13 @@
         <v>106.1</v>
       </c>
       <c r="S112" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="T112" t="n" s="10">
         <v>107.9</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="V112" t="n" s="10">
         <v>107.7</v>
@@ -42539,7 +42539,7 @@
         <v>103.7</v>
       </c>
       <c r="Y112" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="Z112" t="n" s="10">
         <v>106.8</v>
@@ -42560,10 +42560,10 @@
         <v>101.4</v>
       </c>
       <c r="AF112" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AG112" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AH112" t="n" s="10">
         <v>108.9</v>
@@ -42578,7 +42578,7 @@
         <v>107.7</v>
       </c>
       <c r="AL112" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AM112" t="n" s="10">
         <v>105.2</v>
@@ -42587,16 +42587,16 @@
         <v>105.4</v>
       </c>
       <c r="AO112" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AP112" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="AQ112" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>104.0</v>
@@ -42611,7 +42611,7 @@
         <v>106.4</v>
       </c>
       <c r="AW112" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AX112" t="n" s="10">
         <v>104.4</v>
@@ -42632,7 +42632,7 @@
         <v>103.5</v>
       </c>
       <c r="BD112" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BE112" t="n" s="10">
         <v>101.5</v>
@@ -42644,16 +42644,16 @@
         <v>106.1</v>
       </c>
       <c r="BH112" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="BI112" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="BJ112" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="BK112" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="BL112" t="n" s="10">
         <v>97.5</v>
@@ -42662,10 +42662,10 @@
         <v>108.1</v>
       </c>
       <c r="BN112" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="BO112" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BP112" t="n" s="10">
         <v>104.9</v>
@@ -42683,34 +42683,34 @@
         <v>104.8</v>
       </c>
       <c r="BU112" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="BV112" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="BW112" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="BY112" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="BZ112" t="n" s="10">
         <v>105.5</v>
       </c>
       <c r="CA112" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="CB112" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="CC112" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="CE112" t="n" s="10">
         <v>102.9</v>
@@ -42722,7 +42722,7 @@
         <v>100.1</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>103.6</v>
@@ -42731,7 +42731,7 @@
         <v>100.2</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="CL112" t="n" s="10">
         <v>100.3</v>
@@ -42749,7 +42749,7 @@
         <v>98.4</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CR112" t="n" s="10">
         <v>95.1</v>
@@ -42767,19 +42767,19 @@
         <v>96.3</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CX112" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="CY112" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CZ112" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="DA112" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DB112" t="n" s="10">
         <v>95.8</v>
@@ -42803,7 +42803,7 @@
         <v>90.9</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="DJ112" t="n" s="10">
         <v>90.5</v>
@@ -42815,7 +42815,7 @@
         <v>90.1</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="DN112" t="n" s="10">
         <v>87.7</v>
@@ -42827,10 +42827,10 @@
         <v>90.9</v>
       </c>
       <c r="DQ112" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="DS112" t="n" s="10">
         <v>92.4</v>
@@ -42839,7 +42839,7 @@
         <v>93.5</v>
       </c>
       <c r="DU112" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="DV112" t="n" s="10">
         <v>93.3</v>
@@ -42860,7 +42860,7 @@
         <v>94.1</v>
       </c>
       <c r="EB112" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="EC112" t="n" s="10">
         <v>95.7</v>
@@ -42874,7 +42874,7 @@
         <v>36</v>
       </c>
       <c r="C113" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="D113" t="n" s="10">
         <v>107.8</v>
@@ -42892,7 +42892,7 @@
         <v>107.5</v>
       </c>
       <c r="I113" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="J113" t="n" s="10">
         <v>107.4</v>
@@ -42982,7 +42982,7 @@
         <v>105.9</v>
       </c>
       <c r="AM113" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AN113" t="n" s="10">
         <v>105.4</v>
@@ -42994,7 +42994,7 @@
         <v>104.5</v>
       </c>
       <c r="AQ113" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AR113" t="n" s="10">
         <v>103.7</v>
@@ -43057,7 +43057,7 @@
         <v>101.9</v>
       </c>
       <c r="BL113" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="BM113" t="n" s="10">
         <v>102.0</v>
@@ -43081,7 +43081,7 @@
         <v>101.3</v>
       </c>
       <c r="BT113" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="BU113" t="n" s="10">
         <v>101.6</v>
@@ -43093,7 +43093,7 @@
         <v>101.7</v>
       </c>
       <c r="BX113" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="BY113" t="n" s="10">
         <v>101.9</v>
@@ -43114,7 +43114,7 @@
         <v>101.9</v>
       </c>
       <c r="CE113" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CF113" t="n" s="10">
         <v>101.8</v>
@@ -43162,7 +43162,7 @@
         <v>97.5</v>
       </c>
       <c r="CU113" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CV113" t="n" s="10">
         <v>96.5</v>
@@ -43177,13 +43177,13 @@
         <v>95.1</v>
       </c>
       <c r="CZ113" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DA113" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="DB113" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DC113" t="n" s="10">
         <v>93.6</v>
@@ -43222,7 +43222,7 @@
         <v>89.6</v>
       </c>
       <c r="DO113" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="DP113" t="n" s="10">
         <v>89.8</v>
@@ -43264,10 +43264,10 @@
         <v>94.0</v>
       </c>
       <c r="EC113" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="ED113" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="114">
@@ -44487,13 +44487,13 @@
         <v>97.9</v>
       </c>
       <c r="E117" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="F117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="G117" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="H117" t="n" s="10">
         <v>98.3</v>
@@ -44508,7 +44508,7 @@
         <v>98.5</v>
       </c>
       <c r="L117" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="M117" t="n" s="10">
         <v>95.4</v>
@@ -44526,7 +44526,7 @@
         <v>95.4</v>
       </c>
       <c r="R117" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="S117" t="n" s="10">
         <v>102.5</v>
@@ -44547,7 +44547,7 @@
         <v>95.8</v>
       </c>
       <c r="Y117" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="Z117" t="n" s="10">
         <v>98.8</v>
@@ -44556,10 +44556,10 @@
         <v>97.1</v>
       </c>
       <c r="AB117" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="AC117" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="AD117" t="n" s="10">
         <v>101.2</v>
@@ -44568,13 +44568,13 @@
         <v>94.1</v>
       </c>
       <c r="AF117" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="AG117" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="AH117" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AI117" t="n" s="10">
         <v>100.7</v>
@@ -44592,10 +44592,10 @@
         <v>97.8</v>
       </c>
       <c r="AN117" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="AO117" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AP117" t="n" s="10">
         <v>95.1</v>
@@ -44634,13 +44634,13 @@
         <v>90.6</v>
       </c>
       <c r="BB117" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="BC117" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="BD117" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="BE117" t="n" s="10">
         <v>94.8</v>
@@ -44661,7 +44661,7 @@
         <v>93.4</v>
       </c>
       <c r="BK117" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="BL117" t="n" s="10">
         <v>91.0</v>
@@ -44670,22 +44670,22 @@
         <v>100.9</v>
       </c>
       <c r="BN117" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BO117" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="BP117" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="BQ117" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="BR117" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="BS117" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BT117" t="n" s="10">
         <v>97.9</v>
@@ -44694,13 +44694,13 @@
         <v>95.4</v>
       </c>
       <c r="BV117" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="BW117" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="BX117" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BY117" t="n" s="10">
         <v>91.3</v>
@@ -44712,7 +44712,7 @@
         <v>96.3</v>
       </c>
       <c r="CB117" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="CC117" t="n" s="10">
         <v>93.3</v>
@@ -44766,7 +44766,7 @@
         <v>95.5</v>
       </c>
       <c r="CT117" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="CU117" t="n" s="10">
         <v>91.1</v>
@@ -44775,7 +44775,7 @@
         <v>91.6</v>
       </c>
       <c r="CW117" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="CX117" t="n" s="10">
         <v>89.7</v>
@@ -44805,7 +44805,7 @@
         <v>88.8</v>
       </c>
       <c r="DG117" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DH117" t="n" s="10">
         <v>86.4</v>
@@ -44814,19 +44814,19 @@
         <v>85.9</v>
       </c>
       <c r="DJ117" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="DK117" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="DL117" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="DM117" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="DN117" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="DO117" t="n" s="10">
         <v>85.5</v>
@@ -44835,10 +44835,10 @@
         <v>86.1</v>
       </c>
       <c r="DQ117" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="DR117" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DS117" t="n" s="10">
         <v>87.6</v>
@@ -44847,7 +44847,7 @@
         <v>88.2</v>
       </c>
       <c r="DU117" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="DV117" t="n" s="10">
         <v>88.1</v>
@@ -44871,7 +44871,7 @@
         <v>87.5</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>88.9</v>
@@ -44882,7 +44882,7 @@
         <v>36</v>
       </c>
       <c r="C118" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D118" t="n" s="10">
         <v>98.7</v>
@@ -44969,7 +44969,7 @@
         <v>98.2</v>
       </c>
       <c r="AF118" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AG118" t="n" s="10">
         <v>98.5</v>
@@ -44993,7 +44993,7 @@
         <v>98.3</v>
       </c>
       <c r="AN118" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="AO118" t="n" s="10">
         <v>97.7</v>
@@ -45035,7 +45035,7 @@
         <v>95.3</v>
       </c>
       <c r="BB118" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BC118" t="n" s="10">
         <v>95.3</v>
@@ -45095,7 +45095,7 @@
         <v>94.9</v>
       </c>
       <c r="BV118" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="BW118" t="n" s="10">
         <v>94.9</v>
@@ -45158,19 +45158,19 @@
         <v>94.2</v>
       </c>
       <c r="CQ118" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="CR118" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="CS118" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="CT118" t="n" s="10">
         <v>92.6</v>
       </c>
       <c r="CU118" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="CV118" t="n" s="10">
         <v>91.8</v>
@@ -45182,7 +45182,7 @@
         <v>91.1</v>
       </c>
       <c r="CY118" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="CZ118" t="n" s="10">
         <v>90.3</v>
@@ -45257,7 +45257,7 @@
         <v>87.2</v>
       </c>
       <c r="DX118" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DY118" t="n" s="10">
         <v>87.7</v>
@@ -46617,7 +46617,7 @@
         <v>119.9</v>
       </c>
       <c r="AR123" t="n" s="10">
-        <v>119.1</v>
+        <v>119.2</v>
       </c>
       <c r="AS123" t="n" s="10">
         <v>119.1</v>
@@ -46689,7 +46689,7 @@
         <v>115.6</v>
       </c>
       <c r="BP123" t="n" s="10">
-        <v>117.8</v>
+        <v>117.9</v>
       </c>
       <c r="BQ123" t="n" s="10">
         <v>117.2</v>
@@ -46716,7 +46716,7 @@
         <v>122.0</v>
       </c>
       <c r="BY123" t="n" s="10">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="BZ123" t="n" s="10">
         <v>120.6</v>
@@ -46937,7 +46937,7 @@
         <v>126.1</v>
       </c>
       <c r="Q124" t="n" s="10">
-        <v>125.7</v>
+        <v>125.6</v>
       </c>
       <c r="R124" t="n" s="10">
         <v>125.1</v>
@@ -46958,7 +46958,7 @@
         <v>121.9</v>
       </c>
       <c r="X124" t="n" s="10">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="Y124" t="n" s="10">
         <v>121.2</v>
@@ -47240,7 +47240,7 @@
         <v>103.6</v>
       </c>
       <c r="DN124" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="DO124" t="n" s="10">
         <v>104.0</v>
@@ -48613,7 +48613,7 @@
         <v>105.7</v>
       </c>
       <c r="AN128" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AO128" t="n" s="10">
         <v>100.1</v>
@@ -48691,10 +48691,10 @@
         <v>103.5</v>
       </c>
       <c r="BN128" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="BO128" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="BP128" t="n" s="10">
         <v>105.9</v>
@@ -48874,7 +48874,7 @@
         <v>98.0</v>
       </c>
       <c r="DW128" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DX128" t="n" s="10">
         <v>98.8</v>
@@ -49119,7 +49119,7 @@
         <v>105.9</v>
       </c>
       <c r="BW129" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="BX129" t="n" s="10">
         <v>106.6</v>
@@ -49290,7 +49290,7 @@
         <v>97.2</v>
       </c>
       <c r="EB129" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="EC129" t="n" s="10">
         <v>96.8</v>
@@ -50515,7 +50515,7 @@
         <v>35</v>
       </c>
       <c r="C134" t="n" s="10">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D134" t="n" s="10">
         <v>49.7</v>
@@ -50545,10 +50545,10 @@
         <v>53.3</v>
       </c>
       <c r="M134" t="n" s="10">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="N134" t="n" s="10">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="O134" t="n" s="10">
         <v>51.7</v>
@@ -50560,10 +50560,10 @@
         <v>53.3</v>
       </c>
       <c r="R134" t="n" s="10">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="S134" t="n" s="10">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="T134" t="n" s="10">
         <v>54.2</v>
@@ -50707,7 +50707,7 @@
         <v>64.2</v>
       </c>
       <c r="BO134" t="n" s="10">
-        <v>64.4</v>
+        <v>64.5</v>
       </c>
       <c r="BP134" t="n" s="10">
         <v>65.0</v>
@@ -50725,10 +50725,10 @@
         <v>65.7</v>
       </c>
       <c r="BU134" t="n" s="10">
-        <v>65.7</v>
+        <v>65.6</v>
       </c>
       <c r="BV134" t="n" s="10">
-        <v>64.5</v>
+        <v>64.4</v>
       </c>
       <c r="BW134" t="n" s="10">
         <v>66.0</v>
@@ -50743,10 +50743,10 @@
         <v>68.2</v>
       </c>
       <c r="CA134" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="CB134" t="n" s="10">
-        <v>68.6</v>
+        <v>68.7</v>
       </c>
       <c r="CC134" t="n" s="10">
         <v>68.6</v>
@@ -50767,7 +50767,7 @@
         <v>70.8</v>
       </c>
       <c r="CI134" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="CJ134" t="n" s="10">
         <v>71.0</v>
@@ -50806,7 +50806,7 @@
         <v>74.1</v>
       </c>
       <c r="CV134" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="CW134" t="n" s="10">
         <v>75.9</v>
@@ -50815,100 +50815,100 @@
         <v>74.6</v>
       </c>
       <c r="CY134" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="CZ134" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="DA134" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="DB134" t="n" s="10">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="DC134" t="n" s="10">
+        <v>75.9</v>
+      </c>
+      <c r="DD134" t="n" s="10">
         <v>76.0</v>
       </c>
-      <c r="DD134" t="n" s="10">
-        <v>76.2</v>
-      </c>
       <c r="DE134" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="DF134" t="n" s="10">
-        <v>74.7</v>
+        <v>76.1</v>
       </c>
       <c r="DG134" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="DH134" t="n" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="DI134" t="n" s="10">
+        <v>75.8</v>
+      </c>
+      <c r="DJ134" t="n" s="10">
         <v>77.6</v>
       </c>
-      <c r="DI134" t="n" s="10">
-        <v>75.9</v>
-      </c>
-      <c r="DJ134" t="n" s="10">
-        <v>77.8</v>
-      </c>
       <c r="DK134" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DL134" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DM134" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DN134" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DO134" t="n" s="10">
         <v>77.5</v>
       </c>
-      <c r="DL134" t="n" s="10">
-        <v>77.6</v>
-      </c>
-      <c r="DM134" t="n" s="10">
-        <v>77.7</v>
-      </c>
-      <c r="DN134" t="n" s="10">
-        <v>77.6</v>
-      </c>
-      <c r="DO134" t="n" s="10">
+      <c r="DP134" t="n" s="10">
         <v>77.9</v>
       </c>
-      <c r="DP134" t="n" s="10">
-        <v>78.3</v>
-      </c>
       <c r="DQ134" t="n" s="10">
-        <v>78.6</v>
+        <v>78.2</v>
       </c>
       <c r="DR134" t="n" s="10">
-        <v>80.1</v>
+        <v>83.4</v>
       </c>
       <c r="DS134" t="n" s="10">
         <v>73.2</v>
       </c>
       <c r="DT134" t="n" s="10">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
       <c r="DU134" t="n" s="10">
-        <v>77.7</v>
+        <v>77.3</v>
       </c>
       <c r="DV134" t="n" s="10">
-        <v>78.1</v>
+        <v>77.8</v>
       </c>
       <c r="DW134" t="n" s="10">
-        <v>77.1</v>
+        <v>76.8</v>
       </c>
       <c r="DX134" t="n" s="10">
-        <v>79.3</v>
+        <v>79.0</v>
       </c>
       <c r="DY134" t="n" s="10">
-        <v>79.1</v>
+        <v>78.9</v>
       </c>
       <c r="DZ134" t="n" s="10">
-        <v>78.9</v>
+        <v>78.6</v>
       </c>
       <c r="EA134" t="n" s="10">
-        <v>78.9</v>
+        <v>78.7</v>
       </c>
       <c r="EB134" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="EC134" t="n" s="10">
         <v>79.4</v>
       </c>
-      <c r="EC134" t="n" s="10">
-        <v>79.7</v>
-      </c>
       <c r="ED134" t="n" s="10">
-        <v>79.9</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="135">
@@ -50940,7 +50940,7 @@
         <v>51.6</v>
       </c>
       <c r="K135" t="n" s="10">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="L135" t="n" s="10">
         <v>52.1</v>
@@ -51141,7 +51141,7 @@
         <v>67.1</v>
       </c>
       <c r="BZ135" t="n" s="10">
-        <v>67.6</v>
+        <v>67.5</v>
       </c>
       <c r="CA135" t="n" s="10">
         <v>68.0</v>
@@ -51237,79 +51237,79 @@
         <v>76.0</v>
       </c>
       <c r="DF135" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="DG135" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DH135" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="DI135" t="n" s="10">
         <v>76.9</v>
       </c>
       <c r="DJ135" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="DK135" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DL135" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DM135" t="n" s="10">
         <v>77.4</v>
       </c>
-      <c r="DL135" t="n" s="10">
+      <c r="DN135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DO135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DP135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DQ135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DR135" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DS135" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="DT135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DU135" t="n" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="DV135" t="n" s="10">
         <v>77.6</v>
       </c>
-      <c r="DM135" t="n" s="10">
+      <c r="DW135" t="n" s="10">
         <v>77.8</v>
       </c>
-      <c r="DN135" t="n" s="10">
-        <v>77.9</v>
-      </c>
-      <c r="DO135" t="n" s="10">
-        <v>77.9</v>
-      </c>
-      <c r="DP135" t="n" s="10">
-        <v>78.0</v>
-      </c>
-      <c r="DQ135" t="n" s="10">
+      <c r="DX135" t="n" s="10">
         <v>78.1</v>
       </c>
-      <c r="DR135" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="DS135" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="DT135" t="n" s="10">
-        <v>78.0</v>
-      </c>
-      <c r="DU135" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="DV135" t="n" s="10">
-        <v>78.2</v>
-      </c>
-      <c r="DW135" t="n" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="DX135" t="n" s="10">
-        <v>78.5</v>
-      </c>
       <c r="DY135" t="n" s="10">
+        <v>78.4</v>
+      </c>
+      <c r="DZ135" t="n" s="10">
         <v>78.7</v>
       </c>
-      <c r="DZ135" t="n" s="10">
-        <v>78.9</v>
-      </c>
       <c r="EA135" t="n" s="10">
-        <v>79.2</v>
+        <v>79.0</v>
       </c>
       <c r="EB135" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="EC135" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="ED135" t="n" s="10">
-        <v>80.3</v>
+        <v>80.1</v>
       </c>
     </row>
     <row r="136">
@@ -52523,7 +52523,7 @@
         <v>35</v>
       </c>
       <c r="C139" t="n" s="10">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="D139" t="n" s="10">
         <v>46.0</v>
@@ -52535,10 +52535,10 @@
         <v>45.4</v>
       </c>
       <c r="G139" t="n" s="10">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="H139" t="n" s="10">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>48.6</v>
@@ -52547,7 +52547,7 @@
         <v>48.1</v>
       </c>
       <c r="K139" t="n" s="10">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="L139" t="n" s="10">
         <v>49.8</v>
@@ -52556,22 +52556,22 @@
         <v>50.0</v>
       </c>
       <c r="N139" t="n" s="10">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="O139" t="n" s="10">
         <v>48.5</v>
       </c>
       <c r="P139" t="n" s="10">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="Q139" t="n" s="10">
-        <v>50.0</v>
+        <v>49.9</v>
       </c>
       <c r="R139" t="n" s="10">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="S139" t="n" s="10">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
       <c r="T139" t="n" s="10">
         <v>50.9</v>
@@ -52592,13 +52592,13 @@
         <v>51.4</v>
       </c>
       <c r="Z139" t="n" s="10">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="AA139" t="n" s="10">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="AB139" t="n" s="10">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="AC139" t="n" s="10">
         <v>52.8</v>
@@ -52610,7 +52610,7 @@
         <v>52.6</v>
       </c>
       <c r="AF139" t="n" s="10">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="AG139" t="n" s="10">
         <v>53.1</v>
@@ -52619,7 +52619,7 @@
         <v>54.2</v>
       </c>
       <c r="AI139" t="n" s="10">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="AJ139" t="n" s="10">
         <v>53.4</v>
@@ -52628,25 +52628,25 @@
         <v>52.9</v>
       </c>
       <c r="AL139" t="n" s="10">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="AM139" t="n" s="10">
         <v>53.1</v>
       </c>
       <c r="AN139" t="n" s="10">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="AO139" t="n" s="10">
-        <v>53.9</v>
+        <v>54.0</v>
       </c>
       <c r="AP139" t="n" s="10">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="AQ139" t="n" s="10">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="AR139" t="n" s="10">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="AS139" t="n" s="10">
         <v>53.0</v>
@@ -52676,13 +52676,13 @@
         <v>55.0</v>
       </c>
       <c r="BB139" t="n" s="10">
-        <v>56.0</v>
+        <v>56.1</v>
       </c>
       <c r="BC139" t="n" s="10">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="BD139" t="n" s="10">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="BE139" t="n" s="10">
         <v>57.7</v>
@@ -52694,7 +52694,7 @@
         <v>57.7</v>
       </c>
       <c r="BH139" t="n" s="10">
-        <v>58.1</v>
+        <v>58.0</v>
       </c>
       <c r="BI139" t="n" s="10">
         <v>58.7</v>
@@ -52706,7 +52706,7 @@
         <v>60.3</v>
       </c>
       <c r="BL139" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="BM139" t="n" s="10">
         <v>61.1</v>
@@ -52715,10 +52715,10 @@
         <v>59.8</v>
       </c>
       <c r="BO139" t="n" s="10">
-        <v>60.0</v>
+        <v>60.1</v>
       </c>
       <c r="BP139" t="n" s="10">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="BQ139" t="n" s="10">
         <v>61.2</v>
@@ -52733,31 +52733,31 @@
         <v>61.3</v>
       </c>
       <c r="BU139" t="n" s="10">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="BV139" t="n" s="10">
-        <v>60.1</v>
+        <v>59.9</v>
       </c>
       <c r="BW139" t="n" s="10">
         <v>61.6</v>
       </c>
       <c r="BX139" t="n" s="10">
-        <v>62.7</v>
+        <v>62.6</v>
       </c>
       <c r="BY139" t="n" s="10">
         <v>61.5</v>
       </c>
       <c r="BZ139" t="n" s="10">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="CA139" t="n" s="10">
-        <v>64.0</v>
+        <v>63.9</v>
       </c>
       <c r="CB139" t="n" s="10">
         <v>64.1</v>
       </c>
       <c r="CC139" t="n" s="10">
-        <v>64.0</v>
+        <v>64.1</v>
       </c>
       <c r="CD139" t="n" s="10">
         <v>64.6</v>
@@ -52772,7 +52772,7 @@
         <v>65.6</v>
       </c>
       <c r="CH139" t="n" s="10">
-        <v>66.1</v>
+        <v>66.2</v>
       </c>
       <c r="CI139" t="n" s="10">
         <v>67.0</v>
@@ -52787,19 +52787,19 @@
         <v>67.2</v>
       </c>
       <c r="CM139" t="n" s="10">
-        <v>67.5</v>
+        <v>67.4</v>
       </c>
       <c r="CN139" t="n" s="10">
-        <v>68.8</v>
+        <v>68.9</v>
       </c>
       <c r="CO139" t="n" s="10">
-        <v>68.3</v>
+        <v>68.4</v>
       </c>
       <c r="CP139" t="n" s="10">
         <v>68.3</v>
       </c>
       <c r="CQ139" t="n" s="10">
-        <v>68.4</v>
+        <v>68.5</v>
       </c>
       <c r="CR139" t="n" s="10">
         <v>68.6</v>
@@ -52808,7 +52808,7 @@
         <v>69.4</v>
       </c>
       <c r="CT139" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="CU139" t="n" s="10">
         <v>69.5</v>
@@ -52817,16 +52817,16 @@
         <v>69.5</v>
       </c>
       <c r="CW139" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="CX139" t="n" s="10">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="CY139" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="CZ139" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="DA139" t="n" s="10">
         <v>70.1</v>
@@ -52844,10 +52844,10 @@
         <v>70.3</v>
       </c>
       <c r="DF139" t="n" s="10">
-        <v>70.2</v>
+        <v>70.6</v>
       </c>
       <c r="DG139" t="n" s="10">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="DH139" t="n" s="10">
         <v>71.8</v>
@@ -52859,64 +52859,64 @@
         <v>71.8</v>
       </c>
       <c r="DK139" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="DL139" t="n" s="10">
         <v>71.6</v>
       </c>
       <c r="DM139" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="DN139" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="DO139" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="DP139" t="n" s="10">
-        <v>72.1</v>
+        <v>71.9</v>
       </c>
       <c r="DQ139" t="n" s="10">
         <v>72.2</v>
       </c>
       <c r="DR139" t="n" s="10">
-        <v>76.2</v>
+        <v>77.4</v>
       </c>
       <c r="DS139" t="n" s="10">
-        <v>67.5</v>
+        <v>67.4</v>
       </c>
       <c r="DT139" t="n" s="10">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="DU139" t="n" s="10">
-        <v>71.2</v>
+        <v>71.0</v>
       </c>
       <c r="DV139" t="n" s="10">
-        <v>71.4</v>
+        <v>71.3</v>
       </c>
       <c r="DW139" t="n" s="10">
-        <v>70.4</v>
+        <v>70.3</v>
       </c>
       <c r="DX139" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="DY139" t="n" s="10">
+        <v>72.2</v>
+      </c>
+      <c r="DZ139" t="n" s="10">
+        <v>71.9</v>
+      </c>
+      <c r="EA139" t="n" s="10">
+        <v>71.9</v>
+      </c>
+      <c r="EB139" t="n" s="10">
         <v>72.3</v>
       </c>
-      <c r="DZ139" t="n" s="10">
-        <v>72.1</v>
-      </c>
-      <c r="EA139" t="n" s="10">
-        <v>72.1</v>
-      </c>
-      <c r="EB139" t="n" s="10">
+      <c r="EC139" t="n" s="10">
         <v>72.5</v>
       </c>
-      <c r="EC139" t="n" s="10">
-        <v>72.7</v>
-      </c>
       <c r="ED139" t="n" s="10">
-        <v>73.9</v>
+        <v>75.1</v>
       </c>
     </row>
     <row r="140">
@@ -52924,7 +52924,7 @@
         <v>36</v>
       </c>
       <c r="C140" t="n" s="10">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="D140" t="n" s="10">
         <v>45.9</v>
@@ -52939,7 +52939,7 @@
         <v>46.9</v>
       </c>
       <c r="H140" t="n" s="10">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>47.7</v>
@@ -53029,25 +53029,25 @@
         <v>53.3</v>
       </c>
       <c r="AL140" t="n" s="10">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="AM140" t="n" s="10">
         <v>53.4</v>
       </c>
       <c r="AN140" t="n" s="10">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="AO140" t="n" s="10">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="AP140" t="n" s="10">
         <v>53.8</v>
       </c>
       <c r="AQ140" t="n" s="10">
-        <v>53.9</v>
+        <v>54.0</v>
       </c>
       <c r="AR140" t="n" s="10">
-        <v>54.0</v>
+        <v>54.1</v>
       </c>
       <c r="AS140" t="n" s="10">
         <v>54.1</v>
@@ -53080,7 +53080,7 @@
         <v>55.7</v>
       </c>
       <c r="BC140" t="n" s="10">
-        <v>56.1</v>
+        <v>56.2</v>
       </c>
       <c r="BD140" t="n" s="10">
         <v>56.6</v>
@@ -53131,7 +53131,7 @@
         <v>61.0</v>
       </c>
       <c r="BT140" t="n" s="10">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
       <c r="BU140" t="n" s="10">
         <v>61.3</v>
@@ -53152,7 +53152,7 @@
         <v>63.0</v>
       </c>
       <c r="CA140" t="n" s="10">
-        <v>63.5</v>
+        <v>63.4</v>
       </c>
       <c r="CB140" t="n" s="10">
         <v>63.8</v>
@@ -53179,7 +53179,7 @@
         <v>66.5</v>
       </c>
       <c r="CJ140" t="n" s="10">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="CK140" t="n" s="10">
         <v>67.1</v>
@@ -53194,16 +53194,16 @@
         <v>68.1</v>
       </c>
       <c r="CO140" t="n" s="10">
-        <v>68.3</v>
+        <v>68.4</v>
       </c>
       <c r="CP140" t="n" s="10">
         <v>68.6</v>
       </c>
       <c r="CQ140" t="n" s="10">
-        <v>68.8</v>
+        <v>68.9</v>
       </c>
       <c r="CR140" t="n" s="10">
-        <v>69.0</v>
+        <v>69.1</v>
       </c>
       <c r="CS140" t="n" s="10">
         <v>69.3</v>
@@ -53215,7 +53215,7 @@
         <v>69.7</v>
       </c>
       <c r="CV140" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="CW140" t="n" s="10">
         <v>70.0</v>
@@ -53239,7 +53239,7 @@
         <v>70.5</v>
       </c>
       <c r="DD140" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="DE140" t="n" s="10">
         <v>70.6</v>
@@ -53248,7 +53248,7 @@
         <v>70.7</v>
       </c>
       <c r="DG140" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="DH140" t="n" s="10">
         <v>71.0</v>
@@ -53266,58 +53266,58 @@
         <v>71.5</v>
       </c>
       <c r="DM140" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="DN140" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="DO140" t="n" s="10">
+        <v>71.4</v>
+      </c>
+      <c r="DP140" t="n" s="10">
+        <v>71.4</v>
+      </c>
+      <c r="DQ140" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="DR140" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="DS140" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="DT140" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="DU140" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="DV140" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="DW140" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="DX140" t="n" s="10">
         <v>71.5</v>
       </c>
-      <c r="DP140" t="n" s="10">
-        <v>71.5</v>
-      </c>
-      <c r="DQ140" t="n" s="10">
-        <v>71.4</v>
-      </c>
-      <c r="DR140" t="n" s="10">
-        <v>71.4</v>
-      </c>
-      <c r="DS140" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="DT140" t="n" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="DU140" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="DV140" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="DW140" t="n" s="10">
-        <v>71.4</v>
-      </c>
-      <c r="DX140" t="n" s="10">
-        <v>71.6</v>
-      </c>
       <c r="DY140" t="n" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="DZ140" t="n" s="10">
         <v>71.9</v>
       </c>
-      <c r="DZ140" t="n" s="10">
-        <v>72.1</v>
-      </c>
       <c r="EA140" t="n" s="10">
-        <v>72.4</v>
+        <v>72.2</v>
       </c>
       <c r="EB140" t="n" s="10">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="EC140" t="n" s="10">
-        <v>73.1</v>
+        <v>72.9</v>
       </c>
       <c r="ED140" t="n" s="10">
-        <v>73.5</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="141">
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:08:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:04:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>